--- a/二上-管理經濟學/期末作業/跑gretl程式資料/文創產業類型_含總表_2003.xlsx
+++ b/二上-管理經濟學/期末作業/跑gretl程式資料/文創產業類型_含總表_2003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="18210" windowHeight="7090" tabRatio="858" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="18210" windowHeight="7090" tabRatio="858" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1895,7 +1895,7 @@
         <v>35</v>
       </c>
       <c r="W2" s="4">
-        <v>35000</v>
+        <v>10957</v>
       </c>
       <c r="X2" s="4">
         <v>9.93</v>
@@ -1987,7 +1987,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="W3" s="4">
-        <v>37800</v>
+        <v>8895</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" ref="X3:X5" si="0">ROUND(AVERAGE(X2,X15),2)</f>
@@ -2080,7 +2080,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="W4" s="4">
-        <v>32200.000000000004</v>
+        <v>4008</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
@@ -2173,7 +2173,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="W5" s="4">
-        <v>33700</v>
+        <v>3272</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
@@ -2266,7 +2266,7 @@
         <v>33.5</v>
       </c>
       <c r="W6" s="4">
-        <v>33500</v>
+        <v>5801</v>
       </c>
       <c r="X6" s="4">
         <f>ROUND(AVERAGE(X5,X18),2)</f>
@@ -2359,7 +2359,7 @@
         <v>35</v>
       </c>
       <c r="W7" s="4">
-        <v>35000</v>
+        <v>8127</v>
       </c>
       <c r="X7" s="4">
         <v>9.93</v>
@@ -2451,7 +2451,7 @@
         <v>43.7</v>
       </c>
       <c r="W8" s="4">
-        <v>43700</v>
+        <v>21216</v>
       </c>
       <c r="X8" s="4">
         <v>12.4</v>
@@ -2543,7 +2543,7 @@
         <v>38.4</v>
       </c>
       <c r="W9" s="4">
-        <v>38400</v>
+        <v>12203</v>
       </c>
       <c r="X9" s="4">
         <v>10.9</v>
@@ -2635,7 +2635,7 @@
         <v>37.9</v>
       </c>
       <c r="W10" s="4">
-        <v>37900</v>
+        <v>2694</v>
       </c>
       <c r="X10" s="4">
         <v>10.76</v>
@@ -2727,7 +2727,7 @@
         <v>31.2</v>
       </c>
       <c r="W11" s="4">
-        <v>31200</v>
+        <v>2605</v>
       </c>
       <c r="X11" s="4">
         <v>8.5</v>
@@ -2819,7 +2819,7 @@
         <v>39</v>
       </c>
       <c r="W12" s="4">
-        <v>39000</v>
+        <v>7036</v>
       </c>
       <c r="X12" s="4">
         <v>10.62</v>
@@ -2912,7 +2912,7 @@
         <v>37.5</v>
       </c>
       <c r="W13" s="4">
-        <v>37500</v>
+        <v>6721</v>
       </c>
       <c r="X13" s="4">
         <v>8.42</v>
@@ -3005,7 +3005,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="W14" s="4">
-        <v>38200</v>
+        <v>10082</v>
       </c>
       <c r="X14" s="4">
         <v>8.58</v>
@@ -3098,7 +3098,7 @@
         <v>39.9</v>
       </c>
       <c r="W15" s="4">
-        <v>39900</v>
+        <v>11278</v>
       </c>
       <c r="X15" s="4">
         <v>8.9600000000000009</v>
@@ -3191,7 +3191,7 @@
         <v>34.6</v>
       </c>
       <c r="W16" s="4">
-        <v>34600</v>
+        <v>7613</v>
       </c>
       <c r="X16" s="4">
         <v>7.84</v>
@@ -3284,7 +3284,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="W17" s="4">
-        <v>37700</v>
+        <v>15061</v>
       </c>
       <c r="X17" s="4">
         <v>8.5399999999999991</v>
@@ -3377,7 +3377,7 @@
         <v>32.6</v>
       </c>
       <c r="W18" s="4">
-        <v>32600</v>
+        <v>12112</v>
       </c>
       <c r="X18" s="4">
         <v>7.39</v>
@@ -3471,7 +3471,7 @@
         <v>29.9</v>
       </c>
       <c r="W19" s="4">
-        <v>29900</v>
+        <v>2542</v>
       </c>
       <c r="X19" s="4">
         <v>9.6999999999999993</v>
@@ -3565,7 +3565,7 @@
         <v>22.3</v>
       </c>
       <c r="W20" s="4">
-        <v>22300</v>
+        <v>1837</v>
       </c>
       <c r="X20" s="4">
         <v>7.24</v>
@@ -3659,7 +3659,7 @@
         <v>20.5</v>
       </c>
       <c r="W21" s="4">
-        <v>20500</v>
+        <v>1492</v>
       </c>
       <c r="X21" s="4">
         <v>8.01</v>
@@ -3753,7 +3753,7 @@
         <v>18.5</v>
       </c>
       <c r="W22" s="4">
-        <v>18500</v>
+        <v>1731</v>
       </c>
       <c r="X22" s="4">
         <v>7.23</v>
@@ -3847,7 +3847,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="W23" s="4">
-        <v>17600</v>
+        <v>1515</v>
       </c>
       <c r="X23" s="4">
         <v>6.02</v>
@@ -3941,7 +3941,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="W24" s="4">
-        <v>18400</v>
+        <v>1531</v>
       </c>
       <c r="X24" s="4">
         <v>6.29</v>
@@ -4034,7 +4034,7 @@
         <v>20.3</v>
       </c>
       <c r="W25" s="4">
-        <v>20300</v>
+        <v>2640</v>
       </c>
       <c r="X25" s="4">
         <v>9.73</v>
@@ -4127,7 +4127,7 @@
         <v>19.3</v>
       </c>
       <c r="W26" s="4">
-        <v>19300</v>
+        <v>3794</v>
       </c>
       <c r="X26" s="4">
         <v>9.25</v>
@@ -4220,7 +4220,7 @@
         <v>19.7</v>
       </c>
       <c r="W27" s="4">
-        <v>19700</v>
+        <v>3078</v>
       </c>
       <c r="X27" s="4">
         <v>9.4499999999999993</v>
@@ -4313,7 +4313,7 @@
         <v>20</v>
       </c>
       <c r="W28" s="4">
-        <v>20000</v>
+        <v>4903</v>
       </c>
       <c r="X28" s="4">
         <v>9.59</v>
@@ -4406,7 +4406,7 @@
         <v>17.149999999999999</v>
       </c>
       <c r="W29" s="4">
-        <v>17150</v>
+        <v>2290</v>
       </c>
       <c r="X29" s="4">
         <v>8.2200000000000006</v>
@@ -4499,7 +4499,7 @@
         <v>15.4</v>
       </c>
       <c r="W30" s="4">
-        <v>15400</v>
+        <v>2518</v>
       </c>
       <c r="X30" s="4">
         <v>7.38</v>
@@ -4592,7 +4592,7 @@
         <v>15.9</v>
       </c>
       <c r="W31" s="4">
-        <v>15900</v>
+        <v>2082</v>
       </c>
       <c r="X31" s="4">
         <f t="shared" ref="X31:X84" si="3">Z31/V31</f>
@@ -4686,7 +4686,7 @@
         <v>15.6</v>
       </c>
       <c r="W32" s="4">
-        <v>15600</v>
+        <v>1841</v>
       </c>
       <c r="X32" s="4">
         <f t="shared" si="3"/>
@@ -4780,7 +4780,7 @@
         <v>11.85</v>
       </c>
       <c r="W33" s="4">
-        <v>11850</v>
+        <v>2269</v>
       </c>
       <c r="X33" s="4">
         <f t="shared" si="3"/>
@@ -4874,7 +4874,7 @@
         <v>10.3</v>
       </c>
       <c r="W34" s="4">
-        <v>10300</v>
+        <v>2646</v>
       </c>
       <c r="X34" s="4">
         <f t="shared" si="3"/>
@@ -4968,7 +4968,7 @@
         <v>8.48</v>
       </c>
       <c r="W35" s="4">
-        <v>8480</v>
+        <v>1590</v>
       </c>
       <c r="X35" s="4">
         <f t="shared" si="3"/>
@@ -5062,7 +5062,7 @@
         <v>10.15</v>
       </c>
       <c r="W36" s="4">
-        <v>10150</v>
+        <v>1997</v>
       </c>
       <c r="X36" s="4">
         <f t="shared" si="3"/>
@@ -5156,7 +5156,7 @@
         <v>10.25</v>
       </c>
       <c r="W37" s="4">
-        <v>10250</v>
+        <v>4603</v>
       </c>
       <c r="X37" s="4">
         <f t="shared" si="3"/>
@@ -5250,7 +5250,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="W38" s="4">
-        <v>10050</v>
+        <v>2974</v>
       </c>
       <c r="X38" s="4">
         <f t="shared" si="3"/>
@@ -5344,7 +5344,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="W39" s="4">
-        <v>9280</v>
+        <v>1379</v>
       </c>
       <c r="X39" s="4">
         <f t="shared" si="3"/>
@@ -5438,7 +5438,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W40" s="4">
-        <v>8200</v>
+        <v>1897</v>
       </c>
       <c r="X40" s="4">
         <f t="shared" si="3"/>
@@ -5532,7 +5532,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="W41" s="4">
-        <v>8970</v>
+        <v>3283</v>
       </c>
       <c r="X41" s="4">
         <f t="shared" si="3"/>
@@ -5626,7 +5626,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="W42" s="4">
-        <v>9460</v>
+        <v>4291</v>
       </c>
       <c r="X42" s="4">
         <f t="shared" si="3"/>
@@ -5721,7 +5721,7 @@
         <v>7.84</v>
       </c>
       <c r="W43" s="4">
-        <v>7840</v>
+        <v>1406</v>
       </c>
       <c r="X43" s="4">
         <f t="shared" si="3"/>
@@ -5816,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="W44" s="4">
-        <v>7000</v>
+        <v>1490</v>
       </c>
       <c r="X44" s="4">
         <f t="shared" si="3"/>
@@ -5911,7 +5911,7 @@
         <v>6.64</v>
       </c>
       <c r="W45" s="4">
-        <v>6640</v>
+        <v>1077</v>
       </c>
       <c r="X45" s="4">
         <f t="shared" si="3"/>
@@ -6006,7 +6006,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="W46" s="4">
-        <v>9120</v>
+        <v>11718</v>
       </c>
       <c r="X46" s="4">
         <f t="shared" si="3"/>
@@ -6101,7 +6101,7 @@
         <v>10.25</v>
       </c>
       <c r="W47" s="4">
-        <v>10250</v>
+        <v>18821</v>
       </c>
       <c r="X47" s="4">
         <f t="shared" si="3"/>
@@ -6196,7 +6196,7 @@
         <v>9.9</v>
       </c>
       <c r="W48" s="4">
-        <v>9900</v>
+        <v>14237</v>
       </c>
       <c r="X48" s="4">
         <f t="shared" si="3"/>
@@ -6289,7 +6289,7 @@
         <v>11.7</v>
       </c>
       <c r="W49" s="4">
-        <v>11700</v>
+        <v>14412</v>
       </c>
       <c r="X49" s="4">
         <f t="shared" si="3"/>
@@ -6382,7 +6382,7 @@
         <v>12.75</v>
       </c>
       <c r="W50" s="4">
-        <v>12750</v>
+        <v>31126</v>
       </c>
       <c r="X50" s="4">
         <f t="shared" si="3"/>
@@ -6475,7 +6475,7 @@
         <v>16</v>
       </c>
       <c r="W51" s="4">
-        <v>16000</v>
+        <v>13665</v>
       </c>
       <c r="X51" s="4">
         <f t="shared" si="3"/>
@@ -6568,7 +6568,7 @@
         <v>15.5</v>
       </c>
       <c r="W52" s="4">
-        <v>15500</v>
+        <v>16895</v>
       </c>
       <c r="X52" s="4">
         <f t="shared" si="3"/>
@@ -6661,7 +6661,7 @@
         <v>19</v>
       </c>
       <c r="W53" s="4">
-        <v>19000</v>
+        <v>24445</v>
       </c>
       <c r="X53" s="4">
         <f t="shared" si="3"/>
@@ -6754,7 +6754,7 @@
         <v>6.01</v>
       </c>
       <c r="W54" s="4">
-        <v>6010</v>
+        <v>5594</v>
       </c>
       <c r="X54" s="4">
         <f t="shared" si="3"/>
@@ -6847,7 +6847,7 @@
         <v>11.05</v>
       </c>
       <c r="W55" s="4">
-        <v>11050</v>
+        <v>3559</v>
       </c>
       <c r="X55" s="4">
         <f t="shared" si="3"/>
@@ -6940,7 +6940,7 @@
         <v>13.9</v>
       </c>
       <c r="W56" s="4">
-        <v>13900</v>
+        <v>3756</v>
       </c>
       <c r="X56" s="4">
         <f t="shared" si="3"/>
@@ -7033,7 +7033,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="W57" s="4">
-        <v>10050</v>
+        <v>1675</v>
       </c>
       <c r="X57" s="4">
         <f t="shared" si="3"/>
@@ -7126,7 +7126,7 @@
         <v>9.74</v>
       </c>
       <c r="W58" s="4">
-        <v>9740</v>
+        <v>734</v>
       </c>
       <c r="X58" s="4">
         <f t="shared" si="3"/>
@@ -7219,7 +7219,7 @@
         <v>8.25</v>
       </c>
       <c r="W59" s="4">
-        <v>8250</v>
+        <v>791</v>
       </c>
       <c r="X59" s="4">
         <f t="shared" si="3"/>
@@ -7312,7 +7312,7 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="W60" s="4">
-        <v>9620</v>
+        <v>1165</v>
       </c>
       <c r="X60" s="4">
         <f t="shared" si="3"/>
@@ -7405,7 +7405,7 @@
         <v>10</v>
       </c>
       <c r="W61" s="4">
-        <v>10000</v>
+        <v>934</v>
       </c>
       <c r="X61" s="4">
         <f t="shared" si="3"/>
@@ -7498,7 +7498,7 @@
         <v>16.5</v>
       </c>
       <c r="W62" s="4">
-        <v>16500</v>
+        <v>642</v>
       </c>
       <c r="X62" s="4">
         <f t="shared" si="3"/>
@@ -7591,7 +7591,7 @@
         <v>16.2</v>
       </c>
       <c r="W63" s="4">
-        <v>16200</v>
+        <v>75</v>
       </c>
       <c r="X63" s="4">
         <f t="shared" si="3"/>
@@ -7684,7 +7684,7 @@
         <v>12.95</v>
       </c>
       <c r="W64" s="4">
-        <v>12950</v>
+        <v>369</v>
       </c>
       <c r="X64" s="4">
         <f t="shared" si="3"/>
@@ -7777,7 +7777,7 @@
         <v>14.4</v>
       </c>
       <c r="W65" s="4">
-        <v>14400</v>
+        <v>520</v>
       </c>
       <c r="X65" s="4">
         <f t="shared" si="3"/>
@@ -7870,7 +7870,7 @@
         <v>15.5</v>
       </c>
       <c r="W66" s="4">
-        <v>15500</v>
+        <v>329</v>
       </c>
       <c r="X66" s="4">
         <f t="shared" si="3"/>
@@ -7964,7 +7964,7 @@
         <v>13.7</v>
       </c>
       <c r="W67" s="4">
-        <v>13700</v>
+        <v>211</v>
       </c>
       <c r="X67" s="4">
         <f t="shared" si="3"/>
@@ -8058,7 +8058,7 @@
         <v>13.2</v>
       </c>
       <c r="W68" s="4">
-        <v>13200</v>
+        <v>202</v>
       </c>
       <c r="X68" s="4">
         <f t="shared" si="3"/>
@@ -8152,7 +8152,7 @@
         <v>11.2</v>
       </c>
       <c r="W69" s="4">
-        <v>11200</v>
+        <v>53</v>
       </c>
       <c r="X69" s="4">
         <f t="shared" si="3"/>
@@ -8246,7 +8246,7 @@
         <v>10.8</v>
       </c>
       <c r="W70" s="4">
-        <v>10800</v>
+        <v>202</v>
       </c>
       <c r="X70" s="4">
         <f t="shared" si="3"/>
@@ -8340,7 +8340,7 @@
         <v>10</v>
       </c>
       <c r="W71" s="4">
-        <v>10000</v>
+        <v>1070</v>
       </c>
       <c r="X71" s="4">
         <f t="shared" si="3"/>
@@ -8434,7 +8434,7 @@
         <v>9.9</v>
       </c>
       <c r="W72" s="4">
-        <v>9900</v>
+        <v>435</v>
       </c>
       <c r="X72" s="4">
         <f t="shared" si="3"/>
@@ -8528,7 +8528,7 @@
         <v>19.5</v>
       </c>
       <c r="W73" s="4">
-        <v>19500</v>
+        <v>1035</v>
       </c>
       <c r="X73" s="4">
         <f t="shared" si="3"/>
@@ -8622,7 +8622,7 @@
         <v>19.5</v>
       </c>
       <c r="W74" s="4">
-        <v>19500</v>
+        <v>359</v>
       </c>
       <c r="X74" s="4">
         <f t="shared" si="3"/>
@@ -8716,7 +8716,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="W75" s="4">
-        <v>17600</v>
+        <v>148</v>
       </c>
       <c r="X75" s="4">
         <f t="shared" si="3"/>
@@ -8810,7 +8810,7 @@
         <v>14.35</v>
       </c>
       <c r="W76" s="4">
-        <v>14350</v>
+        <v>1952</v>
       </c>
       <c r="X76" s="4">
         <f t="shared" si="3"/>
@@ -8904,7 +8904,7 @@
         <v>23.6</v>
       </c>
       <c r="W77" s="4">
-        <v>23600</v>
+        <v>1190</v>
       </c>
       <c r="X77" s="4">
         <f t="shared" si="3"/>
@@ -8998,7 +8998,7 @@
         <v>48.85</v>
       </c>
       <c r="W78" s="4">
-        <v>48850</v>
+        <v>4859</v>
       </c>
       <c r="X78" s="4">
         <f t="shared" si="3"/>
@@ -9092,7 +9092,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="W79" s="4">
-        <v>34300</v>
+        <v>1507</v>
       </c>
       <c r="X79" s="4">
         <f t="shared" si="3"/>
@@ -9186,7 +9186,7 @@
         <v>36.549999999999997</v>
       </c>
       <c r="W80" s="4">
-        <v>36550</v>
+        <v>840</v>
       </c>
       <c r="X80" s="4">
         <f t="shared" si="3"/>
@@ -9280,7 +9280,7 @@
         <v>31.8</v>
       </c>
       <c r="W81" s="4">
-        <v>31800</v>
+        <v>660</v>
       </c>
       <c r="X81" s="4">
         <f t="shared" si="3"/>
@@ -9374,7 +9374,7 @@
         <v>29.8</v>
       </c>
       <c r="W82" s="4">
-        <v>29800</v>
+        <v>1341</v>
       </c>
       <c r="X82" s="4">
         <f t="shared" si="3"/>
@@ -9468,7 +9468,7 @@
         <v>30.5</v>
       </c>
       <c r="W83" s="4">
-        <v>30500</v>
+        <v>730</v>
       </c>
       <c r="X83" s="4">
         <f t="shared" si="3"/>
@@ -9562,7 +9562,7 @@
         <v>34.9</v>
       </c>
       <c r="W84" s="4">
-        <v>34900</v>
+        <v>807</v>
       </c>
       <c r="X84" s="4">
         <f t="shared" si="3"/>
@@ -9656,7 +9656,7 @@
         <v>39</v>
       </c>
       <c r="W85" s="4">
-        <v>39000</v>
+        <v>887</v>
       </c>
       <c r="X85" s="4">
         <v>66.53</v>
@@ -9749,7 +9749,7 @@
         <v>36</v>
       </c>
       <c r="W86" s="4">
-        <v>36000</v>
+        <v>858</v>
       </c>
       <c r="X86" s="4">
         <v>61.42</v>
@@ -9842,7 +9842,7 @@
         <v>39</v>
       </c>
       <c r="W87" s="4">
-        <v>39000</v>
+        <v>460</v>
       </c>
       <c r="X87" s="4">
         <v>66.569999999999993</v>
@@ -9935,7 +9935,7 @@
         <v>42</v>
       </c>
       <c r="W88" s="4">
-        <v>42000</v>
+        <v>715</v>
       </c>
       <c r="X88" s="4">
         <v>71.69</v>
@@ -10028,7 +10028,7 @@
         <v>43.05</v>
       </c>
       <c r="W89" s="4">
-        <v>43050</v>
+        <v>645</v>
       </c>
       <c r="X89" s="4">
         <v>89.42</v>
@@ -10121,7 +10121,7 @@
         <v>43.8</v>
       </c>
       <c r="W90" s="4">
-        <v>43800</v>
+        <v>284</v>
       </c>
       <c r="X90" s="4">
         <v>90.99</v>
@@ -10214,7 +10214,7 @@
         <v>40.549999999999997</v>
       </c>
       <c r="W91" s="4">
-        <v>40550</v>
+        <v>558</v>
       </c>
       <c r="X91" s="4">
         <v>38.75</v>
@@ -10307,7 +10307,7 @@
         <v>41.95</v>
       </c>
       <c r="W92" s="4">
-        <v>41950</v>
+        <v>339</v>
       </c>
       <c r="X92" s="4">
         <v>40.1</v>
@@ -10400,7 +10400,7 @@
         <v>40</v>
       </c>
       <c r="W93" s="4">
-        <v>40000</v>
+        <v>302</v>
       </c>
       <c r="X93" s="4">
         <v>44.33</v>
@@ -10493,7 +10493,7 @@
         <v>32.1</v>
       </c>
       <c r="W94" s="4">
-        <v>32100</v>
+        <v>744</v>
       </c>
       <c r="X94" s="4">
         <v>35.799999999999997</v>
@@ -10586,7 +10586,7 @@
         <v>31.3</v>
       </c>
       <c r="W95" s="4">
-        <v>31300</v>
+        <v>330</v>
       </c>
       <c r="X95" s="4">
         <f t="shared" ref="X95:X150" si="6">Z95/V95</f>
@@ -10680,7 +10680,7 @@
         <v>29.5</v>
       </c>
       <c r="W96" s="4">
-        <v>29500</v>
+        <v>218</v>
       </c>
       <c r="X96" s="4">
         <f t="shared" si="6"/>
@@ -10774,7 +10774,7 @@
         <v>27.75</v>
       </c>
       <c r="W97" s="4">
-        <v>27750</v>
+        <v>313</v>
       </c>
       <c r="X97" s="4">
         <f t="shared" si="6"/>
@@ -10868,7 +10868,7 @@
         <v>26.5</v>
       </c>
       <c r="W98" s="4">
-        <v>26500</v>
+        <v>363</v>
       </c>
       <c r="X98" s="4">
         <f t="shared" si="6"/>
@@ -10962,7 +10962,7 @@
         <v>25.65</v>
       </c>
       <c r="W99" s="4">
-        <v>25650</v>
+        <v>81</v>
       </c>
       <c r="X99" s="4">
         <f t="shared" si="6"/>
@@ -11056,7 +11056,7 @@
         <v>21.45</v>
       </c>
       <c r="W100" s="4">
-        <v>21450</v>
+        <v>226</v>
       </c>
       <c r="X100" s="4">
         <f t="shared" si="6"/>
@@ -11150,7 +11150,7 @@
         <v>23.8</v>
       </c>
       <c r="W101" s="4">
-        <v>23800</v>
+        <v>189</v>
       </c>
       <c r="X101" s="4">
         <f t="shared" si="6"/>
@@ -11244,7 +11244,7 @@
         <v>20.45</v>
       </c>
       <c r="W102" s="4">
-        <v>20450</v>
+        <v>107</v>
       </c>
       <c r="X102" s="4">
         <f t="shared" si="6"/>
@@ -11337,7 +11337,7 @@
         <v>20.6</v>
       </c>
       <c r="W103" s="4">
-        <v>20600</v>
+        <v>53</v>
       </c>
       <c r="X103" s="4">
         <f t="shared" si="6"/>
@@ -11430,7 +11430,7 @@
         <v>18.3</v>
       </c>
       <c r="W104" s="4">
-        <v>18300</v>
+        <v>77</v>
       </c>
       <c r="X104" s="4">
         <f t="shared" si="6"/>
@@ -11523,7 +11523,7 @@
         <v>21</v>
       </c>
       <c r="W105" s="4">
-        <v>21000</v>
+        <v>46</v>
       </c>
       <c r="X105" s="4">
         <f t="shared" si="6"/>
@@ -11616,7 +11616,7 @@
         <v>19.5</v>
       </c>
       <c r="W106" s="4">
-        <v>19500</v>
+        <v>44</v>
       </c>
       <c r="X106" s="4">
         <f t="shared" si="6"/>
@@ -11709,7 +11709,7 @@
         <v>19.8</v>
       </c>
       <c r="W107" s="4">
-        <v>19800</v>
+        <v>23</v>
       </c>
       <c r="X107" s="4">
         <f t="shared" si="6"/>
@@ -11802,7 +11802,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="W108" s="4">
-        <v>20100</v>
+        <v>26</v>
       </c>
       <c r="X108" s="4">
         <f t="shared" si="6"/>
@@ -11895,7 +11895,7 @@
         <v>19.2</v>
       </c>
       <c r="W109" s="4">
-        <v>19200</v>
+        <v>53</v>
       </c>
       <c r="X109" s="4">
         <f t="shared" si="6"/>
@@ -11988,7 +11988,7 @@
         <v>22.35</v>
       </c>
       <c r="W110" s="4">
-        <v>22350</v>
+        <v>240</v>
       </c>
       <c r="X110" s="4">
         <f t="shared" si="6"/>
@@ -12081,7 +12081,7 @@
         <v>22</v>
       </c>
       <c r="W111" s="4">
-        <v>22000</v>
+        <v>91</v>
       </c>
       <c r="X111" s="4">
         <f t="shared" si="6"/>
@@ -12174,7 +12174,7 @@
         <v>20.2</v>
       </c>
       <c r="W112" s="4">
-        <v>20200</v>
+        <v>348</v>
       </c>
       <c r="X112" s="4">
         <f t="shared" si="6"/>
@@ -12267,7 +12267,7 @@
         <v>18.5</v>
       </c>
       <c r="W113" s="4">
-        <v>18500</v>
+        <v>95</v>
       </c>
       <c r="X113" s="4">
         <f t="shared" si="6"/>
@@ -12360,7 +12360,7 @@
         <v>18.5</v>
       </c>
       <c r="W114" s="4">
-        <v>18500</v>
+        <v>49</v>
       </c>
       <c r="X114" s="4">
         <f t="shared" si="6"/>
@@ -12454,7 +12454,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="W115" s="4">
-        <v>19400</v>
+        <v>196</v>
       </c>
       <c r="X115" s="4">
         <f t="shared" si="6"/>
@@ -12548,7 +12548,7 @@
         <v>19.95</v>
       </c>
       <c r="W116" s="4">
-        <v>19950</v>
+        <v>67</v>
       </c>
       <c r="X116" s="4">
         <f t="shared" si="6"/>
@@ -12642,7 +12642,7 @@
         <v>18.95</v>
       </c>
       <c r="W117" s="4">
-        <v>18950</v>
+        <v>78</v>
       </c>
       <c r="X117" s="4">
         <f t="shared" si="6"/>
@@ -12736,7 +12736,7 @@
         <v>14.8</v>
       </c>
       <c r="W118" s="4">
-        <v>14800</v>
+        <v>100</v>
       </c>
       <c r="X118" s="4">
         <f t="shared" si="6"/>
@@ -12829,7 +12829,7 @@
         <v>16.8</v>
       </c>
       <c r="W119" s="4">
-        <v>16800</v>
+        <v>97</v>
       </c>
       <c r="X119" s="4">
         <f t="shared" si="6"/>
@@ -12922,7 +12922,7 @@
         <v>14.8</v>
       </c>
       <c r="W120" s="4">
-        <v>14800</v>
+        <v>58</v>
       </c>
       <c r="X120" s="4">
         <f t="shared" si="6"/>
@@ -13017,7 +13017,7 @@
         <v>14</v>
       </c>
       <c r="W121" s="4">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="X121" s="4">
         <f t="shared" si="6"/>
@@ -13112,7 +13112,7 @@
         <v>13.7</v>
       </c>
       <c r="W122" s="4">
-        <v>13700</v>
+        <v>73</v>
       </c>
       <c r="X122" s="4">
         <f t="shared" si="6"/>
@@ -13207,7 +13207,7 @@
         <v>14.5</v>
       </c>
       <c r="W123" s="4">
-        <v>14500</v>
+        <v>72</v>
       </c>
       <c r="X123" s="4">
         <f t="shared" si="6"/>
@@ -13302,7 +13302,7 @@
         <v>14.2</v>
       </c>
       <c r="W124" s="4">
-        <v>14200</v>
+        <v>56</v>
       </c>
       <c r="X124" s="4">
         <f t="shared" si="6"/>
@@ -13397,7 +13397,7 @@
         <v>15.2</v>
       </c>
       <c r="W125" s="4">
-        <v>15200</v>
+        <v>91</v>
       </c>
       <c r="X125" s="4">
         <f t="shared" si="6"/>
@@ -13492,7 +13492,7 @@
         <v>15</v>
       </c>
       <c r="W126" s="4">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="X126" s="4">
         <f t="shared" si="6"/>
@@ -13586,7 +13586,7 @@
         <v>14.2</v>
       </c>
       <c r="W127" s="4">
-        <v>14200</v>
+        <v>48</v>
       </c>
       <c r="X127" s="4">
         <f t="shared" si="6"/>
@@ -13680,7 +13680,7 @@
         <v>13.2</v>
       </c>
       <c r="W128" s="4">
-        <v>13200</v>
+        <v>3524</v>
       </c>
       <c r="X128" s="4">
         <f t="shared" si="6"/>
@@ -13774,7 +13774,7 @@
         <v>11.5</v>
       </c>
       <c r="W129" s="4">
-        <v>11500</v>
+        <v>1129</v>
       </c>
       <c r="X129" s="4">
         <f t="shared" si="6"/>
@@ -13868,7 +13868,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="W130" s="4">
-        <v>9450</v>
+        <v>48</v>
       </c>
       <c r="X130" s="4">
         <f t="shared" si="6"/>
@@ -13963,7 +13963,7 @@
         <v>19.25</v>
       </c>
       <c r="W131" s="4">
-        <v>19250</v>
+        <v>275</v>
       </c>
       <c r="X131" s="4">
         <f t="shared" si="6"/>
@@ -14058,7 +14058,7 @@
         <v>14.4</v>
       </c>
       <c r="W132" s="4">
-        <v>14400</v>
+        <v>62</v>
       </c>
       <c r="X132" s="4">
         <f t="shared" si="6"/>
@@ -14152,7 +14152,7 @@
         <v>16.5</v>
       </c>
       <c r="W133" s="4">
-        <v>16500</v>
+        <v>1583</v>
       </c>
       <c r="X133" s="4">
         <f t="shared" si="6"/>
@@ -14246,7 +14246,7 @@
         <v>33.85</v>
       </c>
       <c r="W134" s="4">
-        <v>33850</v>
+        <v>4251</v>
       </c>
       <c r="X134" s="4">
         <f t="shared" si="6"/>
@@ -14340,7 +14340,7 @@
         <v>41.9</v>
       </c>
       <c r="W135" s="4">
-        <v>41900</v>
+        <v>1120</v>
       </c>
       <c r="X135" s="4">
         <f t="shared" si="6"/>
@@ -14434,7 +14434,7 @@
         <v>52</v>
       </c>
       <c r="W136" s="4">
-        <v>52000</v>
+        <v>1204</v>
       </c>
       <c r="X136" s="4">
         <f t="shared" si="6"/>
@@ -14528,7 +14528,7 @@
         <v>56</v>
       </c>
       <c r="W137" s="4">
-        <v>56000</v>
+        <v>1110</v>
       </c>
       <c r="X137" s="4">
         <f t="shared" si="6"/>
@@ -14622,7 +14622,7 @@
         <v>80</v>
       </c>
       <c r="W138" s="4">
-        <v>80000</v>
+        <v>887</v>
       </c>
       <c r="X138" s="4">
         <f t="shared" si="6"/>
@@ -14715,7 +14715,7 @@
         <v>76</v>
       </c>
       <c r="W139" s="4">
-        <v>76000</v>
+        <v>361</v>
       </c>
       <c r="X139" s="4">
         <f t="shared" si="6"/>
@@ -14808,7 +14808,7 @@
         <v>73</v>
       </c>
       <c r="W140" s="4">
-        <v>73000</v>
+        <v>558</v>
       </c>
       <c r="X140" s="4">
         <f t="shared" si="6"/>
@@ -14901,7 +14901,7 @@
         <v>65</v>
       </c>
       <c r="W141" s="4">
-        <v>65000</v>
+        <v>345</v>
       </c>
       <c r="X141" s="4">
         <f t="shared" si="6"/>
@@ -14994,7 +14994,7 @@
         <v>85</v>
       </c>
       <c r="W142" s="4">
-        <v>85000</v>
+        <v>1361</v>
       </c>
       <c r="X142" s="4">
         <f t="shared" si="6"/>
@@ -15087,7 +15087,7 @@
         <v>71</v>
       </c>
       <c r="W143" s="4">
-        <v>71000</v>
+        <v>1503</v>
       </c>
       <c r="X143" s="4">
         <f t="shared" si="6"/>
@@ -15180,7 +15180,7 @@
         <v>79.099999999999994</v>
       </c>
       <c r="W144" s="4">
-        <v>79100</v>
+        <v>1083</v>
       </c>
       <c r="X144" s="4">
         <f t="shared" si="6"/>
@@ -15273,7 +15273,7 @@
         <v>81.2</v>
       </c>
       <c r="W145" s="4">
-        <v>81200</v>
+        <v>1523</v>
       </c>
       <c r="X145" s="4">
         <f t="shared" si="6"/>
@@ -15366,7 +15366,7 @@
         <v>81</v>
       </c>
       <c r="W146" s="4">
-        <v>81000</v>
+        <v>507</v>
       </c>
       <c r="X146" s="4">
         <f t="shared" si="6"/>
@@ -15459,7 +15459,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="W147" s="4">
-        <v>78400</v>
+        <v>380</v>
       </c>
       <c r="X147" s="4">
         <f t="shared" si="6"/>
@@ -15552,7 +15552,7 @@
         <v>72.8</v>
       </c>
       <c r="W148" s="4">
-        <v>72800</v>
+        <v>539</v>
       </c>
       <c r="X148" s="4">
         <f t="shared" si="6"/>
@@ -15645,7 +15645,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="W149" s="4">
-        <v>75900</v>
+        <v>344</v>
       </c>
       <c r="X149" s="4">
         <f t="shared" si="6"/>
@@ -15738,7 +15738,7 @@
         <v>74.5</v>
       </c>
       <c r="W150" s="4">
-        <v>74500</v>
+        <v>242</v>
       </c>
       <c r="X150" s="4">
         <f t="shared" si="6"/>
@@ -15832,7 +15832,7 @@
         <v>70</v>
       </c>
       <c r="W151" s="4">
-        <v>70000</v>
+        <v>180</v>
       </c>
       <c r="X151" s="4">
         <v>152.81</v>
@@ -15925,7 +15925,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="W152" s="4">
-        <v>65900</v>
+        <v>89</v>
       </c>
       <c r="X152" s="4">
         <v>143.86000000000001</v>
@@ -16018,7 +16018,7 @@
         <v>73.5</v>
       </c>
       <c r="W153" s="4">
-        <v>73500</v>
+        <v>573</v>
       </c>
       <c r="X153" s="4">
         <v>160.44999999999999</v>
@@ -16111,7 +16111,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="W154" s="4">
-        <v>77600</v>
+        <v>256</v>
       </c>
       <c r="X154" s="4">
         <v>171.74</v>
@@ -16204,7 +16204,7 @@
         <v>95</v>
       </c>
       <c r="W155" s="4">
-        <v>95000</v>
+        <v>1359</v>
       </c>
       <c r="X155" s="4">
         <f>AVERAGE(X154,X157)</f>
@@ -16298,7 +16298,7 @@
         <v>89.7</v>
       </c>
       <c r="W156" s="4">
-        <v>89700</v>
+        <v>1447</v>
       </c>
       <c r="X156" s="4">
         <f>AVERAGE(X155,X158)</f>
@@ -16392,7 +16392,7 @@
         <v>112.5</v>
       </c>
       <c r="W157" s="4">
-        <v>112500</v>
+        <v>21425</v>
       </c>
       <c r="X157" s="4">
         <v>54.58</v>
@@ -16485,7 +16485,7 @@
         <v>114</v>
       </c>
       <c r="W158" s="4">
-        <v>114000</v>
+        <v>32499</v>
       </c>
       <c r="X158" s="4">
         <v>55.31</v>
@@ -16578,7 +16578,7 @@
         <v>95.7</v>
       </c>
       <c r="W159" s="4">
-        <v>95700</v>
+        <v>17574</v>
       </c>
       <c r="X159" s="4">
         <v>46.43</v>
@@ -16671,7 +16671,7 @@
         <v>126.5</v>
       </c>
       <c r="W160" s="4">
-        <v>126500</v>
+        <v>30169</v>
       </c>
       <c r="X160" s="4">
         <v>61.38</v>
@@ -16764,7 +16764,7 @@
         <v>102</v>
       </c>
       <c r="W161" s="4">
-        <v>102000</v>
+        <v>26454</v>
       </c>
       <c r="X161" s="4">
         <v>51.63</v>
@@ -16853,7 +16853,7 @@
         <v>88.6</v>
       </c>
       <c r="W162" s="4">
-        <v>88600</v>
+        <v>18049</v>
       </c>
       <c r="X162" s="4">
         <v>44.84</v>
@@ -16946,7 +16946,7 @@
         <v>96</v>
       </c>
       <c r="W163" s="4">
-        <v>96000</v>
+        <v>15877</v>
       </c>
       <c r="X163" s="4">
         <f>AVERAGE(X162,X175)</f>
@@ -17040,7 +17040,7 @@
         <v>91.7</v>
       </c>
       <c r="W164" s="4">
-        <v>91700</v>
+        <v>12326</v>
       </c>
       <c r="X164" s="4">
         <f>AVERAGE(X163,X176)</f>
@@ -17134,7 +17134,7 @@
         <v>99.3</v>
       </c>
       <c r="W165" s="4">
-        <v>99300</v>
+        <v>15890</v>
       </c>
       <c r="X165" s="4">
         <f t="shared" ref="X165:X168" si="12">AVERAGE(X164,X177)</f>
@@ -17228,7 +17228,7 @@
         <v>125</v>
       </c>
       <c r="W166" s="4">
-        <v>125000</v>
+        <v>10585</v>
       </c>
       <c r="X166" s="4">
         <f t="shared" si="12"/>
@@ -17323,7 +17323,7 @@
         <v>123</v>
       </c>
       <c r="W167" s="4">
-        <v>123000</v>
+        <v>9962</v>
       </c>
       <c r="X167" s="4">
         <f t="shared" si="12"/>
@@ -17418,7 +17418,7 @@
         <v>119.5</v>
       </c>
       <c r="W168" s="4">
-        <v>119500</v>
+        <v>4746</v>
       </c>
       <c r="X168" s="4">
         <f t="shared" si="12"/>
@@ -17513,7 +17513,7 @@
         <v>115.5</v>
       </c>
       <c r="W169" s="4">
-        <v>115500</v>
+        <v>2636</v>
       </c>
       <c r="X169" s="4">
         <f>AVERAGE(X163,X176)</f>
@@ -17608,7 +17608,7 @@
         <v>114</v>
       </c>
       <c r="W170" s="4">
-        <v>114000</v>
+        <v>1253</v>
       </c>
       <c r="X170" s="4">
         <f t="shared" ref="X170:X174" si="14">AVERAGE(X164,X177)</f>
@@ -17703,7 +17703,7 @@
         <v>114</v>
       </c>
       <c r="W171" s="4">
-        <v>114000</v>
+        <v>1651</v>
       </c>
       <c r="X171" s="4">
         <f t="shared" si="14"/>
@@ -17798,7 +17798,7 @@
         <v>124.5</v>
       </c>
       <c r="W172" s="4">
-        <v>124500</v>
+        <v>3804</v>
       </c>
       <c r="X172" s="4">
         <f t="shared" si="14"/>
@@ -17893,7 +17893,7 @@
         <v>129</v>
       </c>
       <c r="W173" s="4">
-        <v>129000</v>
+        <v>2229</v>
       </c>
       <c r="X173" s="4">
         <f t="shared" si="14"/>
@@ -17988,7 +17988,7 @@
         <v>235.5</v>
       </c>
       <c r="W174" s="4">
-        <v>235500</v>
+        <v>34612</v>
       </c>
       <c r="X174" s="4">
         <f t="shared" si="14"/>
@@ -18083,7 +18083,7 @@
         <v>119.5</v>
       </c>
       <c r="W175" s="4">
-        <v>119500</v>
+        <v>49288</v>
       </c>
       <c r="X175" s="4">
         <v>244.27</v>
@@ -18177,7 +18177,7 @@
         <v>91.1</v>
       </c>
       <c r="W176" s="4">
-        <v>91100</v>
+        <v>26430</v>
       </c>
       <c r="X176" s="4">
         <v>186.22</v>
@@ -18271,7 +18271,7 @@
         <v>82.5</v>
       </c>
       <c r="W177" s="4">
-        <v>82500</v>
+        <v>28661</v>
       </c>
       <c r="X177" s="4">
         <v>168.64</v>
@@ -18365,7 +18365,7 @@
         <v>82</v>
       </c>
       <c r="W178" s="4">
-        <v>82000</v>
+        <v>15182</v>
       </c>
       <c r="X178" s="4">
         <v>167.61</v>
@@ -18459,7 +18459,7 @@
         <v>86.5</v>
       </c>
       <c r="W179" s="4">
-        <v>86500</v>
+        <v>34643</v>
       </c>
       <c r="X179" s="4">
         <v>165.17</v>
@@ -18553,7 +18553,7 @@
         <v>88.5</v>
       </c>
       <c r="W180" s="4">
-        <v>88500</v>
+        <v>18780</v>
       </c>
       <c r="X180" s="4">
         <v>167.76</v>
@@ -18647,7 +18647,7 @@
         <v>83.4</v>
       </c>
       <c r="W181" s="4">
-        <v>83400</v>
+        <v>5154</v>
       </c>
       <c r="X181" s="4">
         <v>597.26</v>
@@ -18741,7 +18741,7 @@
         <v>87.8</v>
       </c>
       <c r="W182" s="4">
-        <v>87800</v>
+        <v>14585</v>
       </c>
       <c r="X182" s="4">
         <v>628.77</v>
@@ -18835,7 +18835,7 @@
         <v>82.9</v>
       </c>
       <c r="W183" s="4">
-        <v>82900</v>
+        <v>3175</v>
       </c>
       <c r="X183" s="4">
         <v>593.67999999999995</v>
@@ -18929,7 +18929,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="W184" s="4">
-        <v>79600</v>
+        <v>14556</v>
       </c>
       <c r="X184" s="4">
         <v>569.94000000000005</v>
@@ -19023,7 +19023,7 @@
         <v>86.6</v>
       </c>
       <c r="W185" s="4">
-        <v>86600</v>
+        <v>12744</v>
       </c>
       <c r="X185" s="4">
         <v>620.05999999999995</v>
@@ -19117,7 +19117,7 @@
         <v>137.5</v>
       </c>
       <c r="W186" s="4">
-        <v>137500</v>
+        <v>40930</v>
       </c>
       <c r="X186" s="4">
         <v>984.51</v>
@@ -19210,7 +19210,7 @@
         <v>108</v>
       </c>
       <c r="W187" s="4">
-        <v>108000</v>
+        <v>33034</v>
       </c>
       <c r="X187" s="4">
         <v>91.46</v>
@@ -19303,7 +19303,7 @@
         <v>129.5</v>
       </c>
       <c r="W188" s="4">
-        <v>129500</v>
+        <v>20283</v>
       </c>
       <c r="X188" s="4">
         <v>109.67</v>
@@ -19396,7 +19396,7 @@
         <v>120.5</v>
       </c>
       <c r="W189" s="4">
-        <v>120500</v>
+        <v>12624</v>
       </c>
       <c r="X189" s="4">
         <v>101.99</v>
@@ -19489,7 +19489,7 @@
         <v>136.5</v>
       </c>
       <c r="W190" s="4">
-        <v>136500</v>
+        <v>25479</v>
       </c>
       <c r="X190" s="4">
         <v>115.53</v>
@@ -19581,7 +19581,7 @@
         <v>80.900000000000006</v>
       </c>
       <c r="W191" s="4">
-        <v>80900</v>
+        <v>29715</v>
       </c>
       <c r="X191" s="4">
         <v>629.01</v>
@@ -19673,7 +19673,7 @@
         <v>105</v>
       </c>
       <c r="W192" s="4">
-        <v>105000</v>
+        <v>16793</v>
       </c>
       <c r="X192" s="4">
         <v>816.39</v>
@@ -19765,7 +19765,7 @@
         <v>114</v>
       </c>
       <c r="W193" s="4">
-        <v>114000</v>
+        <v>14011</v>
       </c>
       <c r="X193" s="4">
         <v>152.94999999999999</v>
@@ -19857,7 +19857,7 @@
         <v>119</v>
       </c>
       <c r="W194" s="4">
-        <v>119000</v>
+        <v>14165</v>
       </c>
       <c r="X194" s="4">
         <v>164.67</v>
@@ -19949,7 +19949,7 @@
         <v>140</v>
       </c>
       <c r="W195" s="4">
-        <v>140000</v>
+        <v>17131</v>
       </c>
       <c r="X195" s="4">
         <v>193.73</v>
@@ -20041,7 +20041,7 @@
         <v>132</v>
       </c>
       <c r="W196" s="4">
-        <v>132000</v>
+        <v>29514</v>
       </c>
       <c r="X196" s="4">
         <v>182.66</v>
@@ -20133,7 +20133,7 @@
         <v>96.2</v>
       </c>
       <c r="W197" s="4">
-        <v>96200</v>
+        <v>31065</v>
       </c>
       <c r="X197" s="4">
         <v>133.12</v>
@@ -20225,7 +20225,7 @@
         <v>90.8</v>
       </c>
       <c r="W198" s="4">
-        <v>90800</v>
+        <v>22333</v>
       </c>
       <c r="X198" s="4">
         <v>125.65</v>
@@ -20317,7 +20317,7 @@
         <v>93.7</v>
       </c>
       <c r="W199" s="4">
-        <v>93700</v>
+        <v>23519</v>
       </c>
       <c r="X199" s="4">
         <v>186.51</v>
@@ -20409,7 +20409,7 @@
         <v>94</v>
       </c>
       <c r="W200" s="4">
-        <v>94000</v>
+        <v>34536</v>
       </c>
       <c r="X200" s="4">
         <v>187.1</v>
@@ -20501,7 +20501,7 @@
         <v>98.7</v>
       </c>
       <c r="W201" s="4">
-        <v>98700</v>
+        <v>39815</v>
       </c>
       <c r="X201" s="4">
         <v>196.46</v>
@@ -20593,7 +20593,7 @@
         <v>118</v>
       </c>
       <c r="W202" s="4">
-        <v>118000</v>
+        <v>62119</v>
       </c>
       <c r="X202" s="4">
         <v>234.88</v>
@@ -20685,7 +20685,7 @@
         <v>104.5</v>
       </c>
       <c r="W203" s="4">
-        <v>104500</v>
+        <v>57071</v>
       </c>
       <c r="X203" s="4">
         <f>AVERAGE(X202,X229)</f>
@@ -20778,7 +20778,7 @@
         <v>98.2</v>
       </c>
       <c r="W204" s="4">
-        <v>98200</v>
+        <v>17330</v>
       </c>
       <c r="X204" s="4">
         <f t="shared" ref="X204:X228" si="15">AVERAGE(X203,X230)</f>
@@ -20871,7 +20871,7 @@
         <v>96</v>
       </c>
       <c r="W205" s="4">
-        <v>96000</v>
+        <v>12823</v>
       </c>
       <c r="X205" s="4">
         <f t="shared" si="15"/>
@@ -20964,7 +20964,7 @@
         <v>89.5</v>
       </c>
       <c r="W206" s="4">
-        <v>89500</v>
+        <v>7142</v>
       </c>
       <c r="X206" s="4">
         <f t="shared" si="15"/>
@@ -21057,7 +21057,7 @@
         <v>92.4</v>
       </c>
       <c r="W207" s="4">
-        <v>92400</v>
+        <v>16046</v>
       </c>
       <c r="X207" s="4">
         <f t="shared" si="15"/>
@@ -21150,7 +21150,7 @@
         <v>51</v>
       </c>
       <c r="W208" s="4">
-        <v>51000</v>
+        <v>14066</v>
       </c>
       <c r="X208" s="4">
         <f t="shared" si="15"/>
@@ -21243,7 +21243,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="W209" s="4">
-        <v>67900</v>
+        <v>17601</v>
       </c>
       <c r="X209" s="4">
         <f t="shared" si="15"/>
@@ -21336,7 +21336,7 @@
         <v>74.3</v>
       </c>
       <c r="W210" s="4">
-        <v>74300</v>
+        <v>18835</v>
       </c>
       <c r="X210" s="4">
         <f t="shared" si="15"/>
@@ -21430,7 +21430,7 @@
         <v>80.400000000000006</v>
       </c>
       <c r="W211" s="4">
-        <v>80400</v>
+        <v>12952</v>
       </c>
       <c r="X211" s="4">
         <f t="shared" si="15"/>
@@ -21524,7 +21524,7 @@
         <v>79.3</v>
       </c>
       <c r="W212" s="4">
-        <v>79300</v>
+        <v>11695</v>
       </c>
       <c r="X212" s="4">
         <f t="shared" si="15"/>
@@ -21618,7 +21618,7 @@
         <v>74.7</v>
       </c>
       <c r="W213" s="4">
-        <v>74700</v>
+        <v>5243</v>
       </c>
       <c r="X213" s="4">
         <f t="shared" si="15"/>
@@ -21712,7 +21712,7 @@
         <v>79.7</v>
       </c>
       <c r="W214" s="4">
-        <v>79700</v>
+        <v>6315</v>
       </c>
       <c r="X214" s="4">
         <f t="shared" si="15"/>
@@ -21806,7 +21806,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="W215" s="4">
-        <v>75600</v>
+        <v>14618</v>
       </c>
       <c r="X215" s="4">
         <f t="shared" si="15"/>
@@ -21900,7 +21900,7 @@
         <v>73.3</v>
       </c>
       <c r="W216" s="4">
-        <v>73300</v>
+        <v>9553</v>
       </c>
       <c r="X216" s="4">
         <f t="shared" si="15"/>
@@ -21994,7 +21994,7 @@
         <v>74.5</v>
       </c>
       <c r="W217" s="4">
-        <v>74500</v>
+        <v>12612</v>
       </c>
       <c r="X217" s="4">
         <f t="shared" si="15"/>
@@ -22088,7 +22088,7 @@
         <v>66.7</v>
       </c>
       <c r="W218" s="4">
-        <v>66700</v>
+        <v>7740</v>
       </c>
       <c r="X218" s="4">
         <f t="shared" si="15"/>
@@ -22183,7 +22183,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="W219" s="4">
-        <v>66400</v>
+        <v>2809</v>
       </c>
       <c r="X219" s="4">
         <f t="shared" si="15"/>
@@ -22277,7 +22277,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="W220" s="4">
-        <v>65900</v>
+        <v>5240</v>
       </c>
       <c r="X220" s="4">
         <f t="shared" si="15"/>
@@ -22371,7 +22371,7 @@
         <v>68.7</v>
       </c>
       <c r="W221" s="4">
-        <v>68700</v>
+        <v>9938</v>
       </c>
       <c r="X221" s="4">
         <f t="shared" si="15"/>
@@ -22465,7 +22465,7 @@
         <v>59.6</v>
       </c>
       <c r="W222" s="4">
-        <v>59600</v>
+        <v>9523</v>
       </c>
       <c r="X222" s="4">
         <f t="shared" si="15"/>
@@ -22559,7 +22559,7 @@
         <v>75.5</v>
       </c>
       <c r="W223" s="4">
-        <v>75500</v>
+        <v>9373</v>
       </c>
       <c r="X223" s="4">
         <f t="shared" si="15"/>
@@ -22653,7 +22653,7 @@
         <v>73.900000000000006</v>
       </c>
       <c r="W224" s="4">
-        <v>73900</v>
+        <v>27973</v>
       </c>
       <c r="X224" s="4">
         <f t="shared" si="15"/>
@@ -22747,7 +22747,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="W225" s="4">
-        <v>74100</v>
+        <v>14688</v>
       </c>
       <c r="X225" s="4">
         <f t="shared" si="15"/>
@@ -22841,7 +22841,7 @@
         <v>66.8</v>
       </c>
       <c r="W226" s="4">
-        <v>66800</v>
+        <v>4554</v>
       </c>
       <c r="X226" s="4">
         <f t="shared" si="15"/>
@@ -22935,7 +22935,7 @@
         <v>64.900000000000006</v>
       </c>
       <c r="W227" s="4">
-        <v>64900.000000000007</v>
+        <v>4375</v>
       </c>
       <c r="X227" s="4">
         <f t="shared" si="15"/>
@@ -23029,7 +23029,7 @@
         <v>66.3</v>
       </c>
       <c r="W228" s="4">
-        <v>66300</v>
+        <v>3597</v>
       </c>
       <c r="X228" s="4">
         <f t="shared" si="15"/>
@@ -23123,7 +23123,7 @@
         <v>101</v>
       </c>
       <c r="W229" s="4">
-        <v>101000</v>
+        <v>75437</v>
       </c>
       <c r="X229" s="4">
         <v>402.4</v>
@@ -23216,7 +23216,7 @@
         <v>80.5</v>
       </c>
       <c r="W230" s="4">
-        <v>80500</v>
+        <v>55191</v>
       </c>
       <c r="X230" s="4">
         <v>320.72000000000003</v>
@@ -23309,7 +23309,7 @@
         <v>88.6</v>
       </c>
       <c r="W231" s="4">
-        <v>88600</v>
+        <v>24862</v>
       </c>
       <c r="X231" s="4">
         <v>352.99</v>
@@ -23402,7 +23402,7 @@
         <v>95</v>
       </c>
       <c r="W232" s="4">
-        <v>95000</v>
+        <v>54614</v>
       </c>
       <c r="X232" s="4">
         <v>378.49</v>
@@ -23495,7 +23495,7 @@
         <v>81.7</v>
       </c>
       <c r="W233" s="4">
-        <v>81700</v>
+        <v>20062</v>
       </c>
       <c r="X233" s="4">
         <v>325.5</v>
@@ -23588,7 +23588,7 @@
         <v>88.7</v>
       </c>
       <c r="W234" s="4">
-        <v>88700</v>
+        <v>11431</v>
       </c>
       <c r="X234" s="4">
         <v>353.39</v>
@@ -23681,7 +23681,7 @@
         <v>75.5</v>
       </c>
       <c r="W235" s="4">
-        <v>75500</v>
+        <v>19364</v>
       </c>
       <c r="X235" s="4">
         <v>320.72000000000003</v>
@@ -23774,7 +23774,7 @@
         <v>82.4</v>
       </c>
       <c r="W236" s="4">
-        <v>82400</v>
+        <v>19089</v>
       </c>
       <c r="X236" s="4">
         <v>352.99</v>
@@ -23867,7 +23867,7 @@
         <v>82.7</v>
       </c>
       <c r="W237" s="4">
-        <v>82700</v>
+        <v>14470</v>
       </c>
       <c r="X237" s="4">
         <v>378.49</v>
@@ -23960,7 +23960,7 @@
         <v>48.3</v>
       </c>
       <c r="W238" s="4">
-        <v>48300</v>
+        <v>19121</v>
       </c>
       <c r="X238" s="4">
         <v>325.5</v>
@@ -24053,7 +24053,7 @@
         <v>45.4</v>
       </c>
       <c r="W239" s="4">
-        <v>45400</v>
+        <v>11573</v>
       </c>
       <c r="X239" s="4">
         <v>353.39</v>
@@ -24146,7 +24146,7 @@
         <v>50.3</v>
       </c>
       <c r="W240" s="4">
-        <v>50300</v>
+        <v>21571</v>
       </c>
       <c r="X240" s="4">
         <v>320.72000000000003</v>
@@ -24239,7 +24239,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="W241" s="4">
-        <v>65099.999999999993</v>
+        <v>95333</v>
       </c>
       <c r="X241" s="4">
         <v>352.99</v>
@@ -24332,7 +24332,7 @@
         <v>64.8</v>
       </c>
       <c r="W242" s="4">
-        <v>64800</v>
+        <v>44549</v>
       </c>
       <c r="X242" s="4">
         <v>378.49</v>
@@ -24425,7 +24425,7 @@
         <v>57.1</v>
       </c>
       <c r="W243" s="4">
-        <v>57100</v>
+        <v>22328</v>
       </c>
       <c r="X243" s="4">
         <v>325.5</v>
@@ -24518,7 +24518,7 @@
         <v>62.4</v>
       </c>
       <c r="W244" s="4">
-        <v>62400</v>
+        <v>16737</v>
       </c>
       <c r="X244" s="4">
         <v>353.39</v>
@@ -24611,7 +24611,7 @@
         <v>73</v>
       </c>
       <c r="W245" s="4">
-        <v>73000</v>
+        <v>35099</v>
       </c>
       <c r="X245" s="4">
         <v>320.72000000000003</v>
@@ -24704,7 +24704,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="W246" s="4">
-        <v>81600</v>
+        <v>133685</v>
       </c>
       <c r="X246" s="4">
         <v>352.99</v>
@@ -24797,7 +24797,7 @@
         <v>100.5</v>
       </c>
       <c r="W247" s="4">
-        <v>100500</v>
+        <v>167624</v>
       </c>
       <c r="X247" s="4">
         <v>378.49</v>
@@ -24890,7 +24890,7 @@
         <v>85.7</v>
       </c>
       <c r="W248" s="4">
-        <v>85700</v>
+        <v>163168</v>
       </c>
       <c r="X248" s="4">
         <v>325.5</v>
@@ -24983,7 +24983,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="W249" s="4">
-        <v>68100</v>
+        <v>43160</v>
       </c>
       <c r="X249" s="4">
         <v>353.39</v>
@@ -25076,7 +25076,7 @@
         <v>65.7</v>
       </c>
       <c r="W250" s="4">
-        <v>65700</v>
+        <v>23609</v>
       </c>
       <c r="X250" s="4">
         <v>320.72000000000003</v>
@@ -25168,7 +25168,7 @@
         <v>68.400000000000006</v>
       </c>
       <c r="W251" s="4">
-        <v>68400</v>
+        <v>22456</v>
       </c>
       <c r="X251" s="4">
         <v>352.99</v>
@@ -25260,7 +25260,7 @@
         <v>78.5</v>
       </c>
       <c r="W252" s="4">
-        <v>78500</v>
+        <v>51560</v>
       </c>
       <c r="X252" s="4">
         <v>378.49</v>
@@ -25352,7 +25352,7 @@
         <v>77</v>
       </c>
       <c r="W253" s="4">
-        <v>77000</v>
+        <v>62475</v>
       </c>
       <c r="X253" s="4">
         <v>325.5</v>
@@ -25444,7 +25444,7 @@
         <v>77.3</v>
       </c>
       <c r="W254" s="4">
-        <v>77300</v>
+        <v>71017</v>
       </c>
       <c r="X254" s="4">
         <v>353.39</v>
@@ -25536,7 +25536,7 @@
         <v>74.8</v>
       </c>
       <c r="W255" s="4">
-        <v>74800</v>
+        <v>11935</v>
       </c>
       <c r="X255" s="4">
         <v>320.72000000000003</v>
@@ -25628,7 +25628,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="W256" s="4">
-        <v>69900</v>
+        <v>22411</v>
       </c>
       <c r="X256" s="4">
         <v>352.99</v>
@@ -25720,7 +25720,7 @@
         <v>70.8</v>
       </c>
       <c r="W257" s="4">
-        <v>70800</v>
+        <v>10736</v>
       </c>
       <c r="X257" s="4">
         <v>378.49</v>
@@ -25812,7 +25812,7 @@
         <v>71.5</v>
       </c>
       <c r="W258" s="4">
-        <v>71500</v>
+        <v>13850</v>
       </c>
       <c r="X258" s="4">
         <v>325.5</v>
@@ -25904,7 +25904,7 @@
         <v>74.8</v>
       </c>
       <c r="W259" s="4">
-        <v>74800</v>
+        <v>26401</v>
       </c>
       <c r="X259" s="4">
         <v>353.39</v>
@@ -26000,7 +26000,7 @@
         <v>64.8</v>
       </c>
       <c r="W260" s="4">
-        <v>64800</v>
+        <v>21636</v>
       </c>
       <c r="X260" s="4">
         <v>320.72000000000003</v>
@@ -26096,7 +26096,7 @@
         <v>63.3</v>
       </c>
       <c r="W261" s="4">
-        <v>63300</v>
+        <v>10361</v>
       </c>
       <c r="X261" s="4">
         <v>352.99</v>
@@ -26192,7 +26192,7 @@
         <v>63.3</v>
       </c>
       <c r="W262" s="4">
-        <v>63300</v>
+        <v>13713</v>
       </c>
       <c r="X262" s="4">
         <v>378.49</v>
@@ -60110,8 +60110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -60168,7 +60168,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="4">
-        <v>35000</v>
+        <v>10957</v>
       </c>
       <c r="D2" s="4">
         <v>9.93</v>
@@ -60200,7 +60200,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="C3" s="4">
-        <v>37800</v>
+        <v>8895</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D5" si="0">ROUND(AVERAGE(D2,D15),2)</f>
@@ -60233,7 +60233,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C4" s="4">
-        <v>32200.000000000004</v>
+        <v>4008</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -60266,7 +60266,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C5" s="4">
-        <v>33700</v>
+        <v>3272</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -60299,7 +60299,7 @@
         <v>33.5</v>
       </c>
       <c r="C6" s="4">
-        <v>33500</v>
+        <v>5801</v>
       </c>
       <c r="D6" s="4">
         <f>ROUND(AVERAGE(D5,D18),2)</f>
@@ -60332,7 +60332,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="4">
-        <v>35000</v>
+        <v>8127</v>
       </c>
       <c r="D7" s="4">
         <v>9.93</v>
@@ -60364,7 +60364,7 @@
         <v>43.7</v>
       </c>
       <c r="C8" s="4">
-        <v>43700</v>
+        <v>21216</v>
       </c>
       <c r="D8" s="4">
         <v>12.4</v>
@@ -60396,7 +60396,7 @@
         <v>38.4</v>
       </c>
       <c r="C9" s="4">
-        <v>38400</v>
+        <v>12203</v>
       </c>
       <c r="D9" s="4">
         <v>10.9</v>
@@ -60428,7 +60428,7 @@
         <v>37.9</v>
       </c>
       <c r="C10" s="4">
-        <v>37900</v>
+        <v>2694</v>
       </c>
       <c r="D10" s="4">
         <v>10.76</v>
@@ -60460,7 +60460,7 @@
         <v>31.2</v>
       </c>
       <c r="C11" s="4">
-        <v>31200</v>
+        <v>2605</v>
       </c>
       <c r="D11" s="4">
         <v>8.5</v>
@@ -60492,7 +60492,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="4">
-        <v>39000</v>
+        <v>7036</v>
       </c>
       <c r="D12" s="4">
         <v>10.62</v>
@@ -60524,7 +60524,7 @@
         <v>37.5</v>
       </c>
       <c r="C13" s="4">
-        <v>37500</v>
+        <v>6721</v>
       </c>
       <c r="D13" s="4">
         <v>8.42</v>
@@ -60556,7 +60556,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="C14" s="4">
-        <v>38200</v>
+        <v>10082</v>
       </c>
       <c r="D14" s="4">
         <v>8.58</v>
@@ -60588,7 +60588,7 @@
         <v>39.9</v>
       </c>
       <c r="C15" s="4">
-        <v>39900</v>
+        <v>11278</v>
       </c>
       <c r="D15" s="4">
         <v>8.9600000000000009</v>
@@ -60620,7 +60620,7 @@
         <v>34.6</v>
       </c>
       <c r="C16" s="4">
-        <v>34600</v>
+        <v>7613</v>
       </c>
       <c r="D16" s="4">
         <v>7.84</v>
@@ -60652,7 +60652,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="C17" s="4">
-        <v>37700</v>
+        <v>15061</v>
       </c>
       <c r="D17" s="4">
         <v>8.5399999999999991</v>
@@ -60684,7 +60684,7 @@
         <v>32.6</v>
       </c>
       <c r="C18" s="4">
-        <v>32600</v>
+        <v>12112</v>
       </c>
       <c r="D18" s="4">
         <v>7.39</v>
@@ -60716,7 +60716,7 @@
         <v>29.9</v>
       </c>
       <c r="C19" s="4">
-        <v>29900</v>
+        <v>2542</v>
       </c>
       <c r="D19" s="4">
         <v>9.6999999999999993</v>
@@ -60748,7 +60748,7 @@
         <v>22.3</v>
       </c>
       <c r="C20" s="4">
-        <v>22300</v>
+        <v>1837</v>
       </c>
       <c r="D20" s="4">
         <v>7.24</v>
@@ -60780,7 +60780,7 @@
         <v>20.5</v>
       </c>
       <c r="C21" s="4">
-        <v>20500</v>
+        <v>1492</v>
       </c>
       <c r="D21" s="4">
         <v>8.01</v>
@@ -60812,7 +60812,7 @@
         <v>18.5</v>
       </c>
       <c r="C22" s="4">
-        <v>18500</v>
+        <v>1731</v>
       </c>
       <c r="D22" s="4">
         <v>7.23</v>
@@ -60844,7 +60844,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C23" s="4">
-        <v>17600</v>
+        <v>1515</v>
       </c>
       <c r="D23" s="4">
         <v>6.02</v>
@@ -60876,7 +60876,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C24" s="4">
-        <v>18400</v>
+        <v>1531</v>
       </c>
       <c r="D24" s="4">
         <v>6.29</v>
@@ -60908,7 +60908,7 @@
         <v>20.3</v>
       </c>
       <c r="C25" s="4">
-        <v>20300</v>
+        <v>2640</v>
       </c>
       <c r="D25" s="4">
         <v>9.73</v>
@@ -60940,7 +60940,7 @@
         <v>19.3</v>
       </c>
       <c r="C26" s="4">
-        <v>19300</v>
+        <v>3794</v>
       </c>
       <c r="D26" s="4">
         <v>9.25</v>
@@ -60972,7 +60972,7 @@
         <v>19.7</v>
       </c>
       <c r="C27" s="4">
-        <v>19700</v>
+        <v>3078</v>
       </c>
       <c r="D27" s="4">
         <v>9.4499999999999993</v>
@@ -61004,7 +61004,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="4">
-        <v>20000</v>
+        <v>4903</v>
       </c>
       <c r="D28" s="4">
         <v>9.59</v>
@@ -61036,7 +61036,7 @@
         <v>17.149999999999999</v>
       </c>
       <c r="C29" s="4">
-        <v>17150</v>
+        <v>2290</v>
       </c>
       <c r="D29" s="4">
         <v>8.2200000000000006</v>
@@ -61068,7 +61068,7 @@
         <v>15.4</v>
       </c>
       <c r="C30" s="4">
-        <v>15400</v>
+        <v>2518</v>
       </c>
       <c r="D30" s="4">
         <v>7.38</v>
@@ -61100,7 +61100,7 @@
         <v>15.9</v>
       </c>
       <c r="C31" s="4">
-        <v>15900</v>
+        <v>2082</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ref="D31:D62" si="1">F31/B31</f>
@@ -61133,7 +61133,7 @@
         <v>15.6</v>
       </c>
       <c r="C32" s="4">
-        <v>15600</v>
+        <v>1841</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="1"/>
@@ -61166,7 +61166,7 @@
         <v>11.85</v>
       </c>
       <c r="C33" s="4">
-        <v>11850</v>
+        <v>2269</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="1"/>
@@ -61199,7 +61199,7 @@
         <v>10.3</v>
       </c>
       <c r="C34" s="4">
-        <v>10300</v>
+        <v>2646</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="1"/>
@@ -61232,7 +61232,7 @@
         <v>8.48</v>
       </c>
       <c r="C35" s="4">
-        <v>8480</v>
+        <v>1590</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="1"/>
@@ -61265,7 +61265,7 @@
         <v>10.15</v>
       </c>
       <c r="C36" s="4">
-        <v>10150</v>
+        <v>1997</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="1"/>
@@ -61298,7 +61298,7 @@
         <v>10.25</v>
       </c>
       <c r="C37" s="4">
-        <v>10250</v>
+        <v>4603</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="1"/>
@@ -61331,7 +61331,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="C38" s="4">
-        <v>10050</v>
+        <v>2974</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="1"/>
@@ -61364,7 +61364,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="C39" s="4">
-        <v>9280</v>
+        <v>1379</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="1"/>
@@ -61397,7 +61397,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C40" s="4">
-        <v>8200</v>
+        <v>1897</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
@@ -61430,7 +61430,7 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="C41" s="4">
-        <v>8970</v>
+        <v>3283</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
@@ -61463,7 +61463,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="C42" s="4">
-        <v>9460</v>
+        <v>4291</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
@@ -61496,7 +61496,7 @@
         <v>7.84</v>
       </c>
       <c r="C43" s="4">
-        <v>7840</v>
+        <v>1406</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
@@ -61529,7 +61529,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="4">
-        <v>7000</v>
+        <v>1490</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
@@ -61562,7 +61562,7 @@
         <v>6.64</v>
       </c>
       <c r="C45" s="4">
-        <v>6640</v>
+        <v>1077</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="1"/>
@@ -61595,7 +61595,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="C46" s="4">
-        <v>9120</v>
+        <v>11718</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="1"/>
@@ -61628,7 +61628,7 @@
         <v>10.25</v>
       </c>
       <c r="C47" s="4">
-        <v>10250</v>
+        <v>18821</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="1"/>
@@ -61661,7 +61661,7 @@
         <v>9.9</v>
       </c>
       <c r="C48" s="4">
-        <v>9900</v>
+        <v>14237</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="1"/>
@@ -61694,7 +61694,7 @@
         <v>11.7</v>
       </c>
       <c r="C49" s="4">
-        <v>11700</v>
+        <v>14412</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="1"/>
@@ -61727,7 +61727,7 @@
         <v>12.75</v>
       </c>
       <c r="C50" s="4">
-        <v>12750</v>
+        <v>31126</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="1"/>
@@ -61760,7 +61760,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="4">
-        <v>16000</v>
+        <v>13665</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="1"/>
@@ -61793,7 +61793,7 @@
         <v>15.5</v>
       </c>
       <c r="C52" s="4">
-        <v>15500</v>
+        <v>16895</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="1"/>
@@ -61826,7 +61826,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="4">
-        <v>19000</v>
+        <v>24445</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" si="1"/>
@@ -61859,7 +61859,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" s="4">
-        <v>6010</v>
+        <v>5594</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" si="1"/>
@@ -61892,7 +61892,7 @@
         <v>11.05</v>
       </c>
       <c r="C55" s="4">
-        <v>11050</v>
+        <v>3559</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" si="1"/>
@@ -61925,7 +61925,7 @@
         <v>13.9</v>
       </c>
       <c r="C56" s="4">
-        <v>13900</v>
+        <v>3756</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" si="1"/>
@@ -61958,7 +61958,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="C57" s="4">
-        <v>10050</v>
+        <v>1675</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" si="1"/>
@@ -61991,7 +61991,7 @@
         <v>9.74</v>
       </c>
       <c r="C58" s="4">
-        <v>9740</v>
+        <v>734</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" si="1"/>
@@ -62024,7 +62024,7 @@
         <v>8.25</v>
       </c>
       <c r="C59" s="4">
-        <v>8250</v>
+        <v>791</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" si="1"/>
@@ -62057,7 +62057,7 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="C60" s="4">
-        <v>9620</v>
+        <v>1165</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" si="1"/>
@@ -62090,7 +62090,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="4">
-        <v>10000</v>
+        <v>934</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" si="1"/>
@@ -62123,7 +62123,7 @@
         <v>16.5</v>
       </c>
       <c r="C62" s="4">
-        <v>16500</v>
+        <v>642</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" si="1"/>
@@ -62156,7 +62156,7 @@
         <v>16.2</v>
       </c>
       <c r="C63" s="4">
-        <v>16200</v>
+        <v>75</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ref="D63:D84" si="2">F63/B63</f>
@@ -62189,7 +62189,7 @@
         <v>12.95</v>
       </c>
       <c r="C64" s="4">
-        <v>12950</v>
+        <v>369</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" si="2"/>
@@ -62222,7 +62222,7 @@
         <v>14.4</v>
       </c>
       <c r="C65" s="4">
-        <v>14400</v>
+        <v>520</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" si="2"/>
@@ -62255,7 +62255,7 @@
         <v>15.5</v>
       </c>
       <c r="C66" s="4">
-        <v>15500</v>
+        <v>329</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" si="2"/>
@@ -62288,7 +62288,7 @@
         <v>13.7</v>
       </c>
       <c r="C67" s="4">
-        <v>13700</v>
+        <v>211</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" si="2"/>
@@ -62321,7 +62321,7 @@
         <v>13.2</v>
       </c>
       <c r="C68" s="4">
-        <v>13200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" si="2"/>
@@ -62354,7 +62354,7 @@
         <v>11.2</v>
       </c>
       <c r="C69" s="4">
-        <v>11200</v>
+        <v>53</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" si="2"/>
@@ -62387,7 +62387,7 @@
         <v>10.8</v>
       </c>
       <c r="C70" s="4">
-        <v>10800</v>
+        <v>202</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" si="2"/>
@@ -62420,7 +62420,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="4">
-        <v>10000</v>
+        <v>1070</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" si="2"/>
@@ -62453,7 +62453,7 @@
         <v>9.9</v>
       </c>
       <c r="C72" s="4">
-        <v>9900</v>
+        <v>435</v>
       </c>
       <c r="D72" s="4">
         <f t="shared" si="2"/>
@@ -62486,7 +62486,7 @@
         <v>19.5</v>
       </c>
       <c r="C73" s="4">
-        <v>19500</v>
+        <v>1035</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" si="2"/>
@@ -62519,7 +62519,7 @@
         <v>19.5</v>
       </c>
       <c r="C74" s="4">
-        <v>19500</v>
+        <v>359</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" si="2"/>
@@ -62552,7 +62552,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C75" s="4">
-        <v>17600</v>
+        <v>148</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" si="2"/>
@@ -62585,7 +62585,7 @@
         <v>14.35</v>
       </c>
       <c r="C76" s="4">
-        <v>14350</v>
+        <v>1952</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" si="2"/>
@@ -62618,7 +62618,7 @@
         <v>23.6</v>
       </c>
       <c r="C77" s="4">
-        <v>23600</v>
+        <v>1190</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" si="2"/>
@@ -62651,7 +62651,7 @@
         <v>48.85</v>
       </c>
       <c r="C78" s="4">
-        <v>48850</v>
+        <v>4859</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" si="2"/>
@@ -62684,7 +62684,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C79" s="4">
-        <v>34300</v>
+        <v>1507</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" si="2"/>
@@ -62717,7 +62717,7 @@
         <v>36.549999999999997</v>
       </c>
       <c r="C80" s="4">
-        <v>36550</v>
+        <v>840</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" si="2"/>
@@ -62750,7 +62750,7 @@
         <v>31.8</v>
       </c>
       <c r="C81" s="4">
-        <v>31800</v>
+        <v>660</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" si="2"/>
@@ -62783,7 +62783,7 @@
         <v>29.8</v>
       </c>
       <c r="C82" s="4">
-        <v>29800</v>
+        <v>1341</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" si="2"/>
@@ -62816,7 +62816,7 @@
         <v>30.5</v>
       </c>
       <c r="C83" s="4">
-        <v>30500</v>
+        <v>730</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" si="2"/>
@@ -62849,7 +62849,7 @@
         <v>34.9</v>
       </c>
       <c r="C84" s="4">
-        <v>34900</v>
+        <v>807</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" si="2"/>
@@ -62882,7 +62882,7 @@
         <v>39</v>
       </c>
       <c r="C85" s="4">
-        <v>39000</v>
+        <v>887</v>
       </c>
       <c r="D85" s="4">
         <v>66.53</v>
@@ -62914,7 +62914,7 @@
         <v>36</v>
       </c>
       <c r="C86" s="4">
-        <v>36000</v>
+        <v>858</v>
       </c>
       <c r="D86" s="4">
         <v>61.42</v>
@@ -62946,7 +62946,7 @@
         <v>39</v>
       </c>
       <c r="C87" s="4">
-        <v>39000</v>
+        <v>460</v>
       </c>
       <c r="D87" s="4">
         <v>66.569999999999993</v>
@@ -62978,7 +62978,7 @@
         <v>42</v>
       </c>
       <c r="C88" s="4">
-        <v>42000</v>
+        <v>715</v>
       </c>
       <c r="D88" s="4">
         <v>71.69</v>
@@ -63010,7 +63010,7 @@
         <v>43.05</v>
       </c>
       <c r="C89" s="4">
-        <v>43050</v>
+        <v>645</v>
       </c>
       <c r="D89" s="4">
         <v>89.42</v>
@@ -63042,7 +63042,7 @@
         <v>43.8</v>
       </c>
       <c r="C90" s="4">
-        <v>43800</v>
+        <v>284</v>
       </c>
       <c r="D90" s="4">
         <v>90.99</v>
@@ -63074,7 +63074,7 @@
         <v>40.549999999999997</v>
       </c>
       <c r="C91" s="4">
-        <v>40550</v>
+        <v>558</v>
       </c>
       <c r="D91" s="4">
         <v>38.75</v>
@@ -63106,7 +63106,7 @@
         <v>41.95</v>
       </c>
       <c r="C92" s="4">
-        <v>41950</v>
+        <v>339</v>
       </c>
       <c r="D92" s="4">
         <v>40.1</v>
@@ -63138,7 +63138,7 @@
         <v>40</v>
       </c>
       <c r="C93" s="4">
-        <v>40000</v>
+        <v>302</v>
       </c>
       <c r="D93" s="4">
         <v>44.33</v>
@@ -63170,7 +63170,7 @@
         <v>32.1</v>
       </c>
       <c r="C94" s="4">
-        <v>32100</v>
+        <v>744</v>
       </c>
       <c r="D94" s="4">
         <v>35.799999999999997</v>
@@ -63202,7 +63202,7 @@
         <v>31.3</v>
       </c>
       <c r="C95" s="4">
-        <v>31300</v>
+        <v>330</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" ref="D95:D126" si="3">F95/B95</f>
@@ -63235,7 +63235,7 @@
         <v>29.5</v>
       </c>
       <c r="C96" s="4">
-        <v>29500</v>
+        <v>218</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" si="3"/>
@@ -63268,7 +63268,7 @@
         <v>27.75</v>
       </c>
       <c r="C97" s="4">
-        <v>27750</v>
+        <v>313</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" si="3"/>
@@ -63301,7 +63301,7 @@
         <v>26.5</v>
       </c>
       <c r="C98" s="4">
-        <v>26500</v>
+        <v>363</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" si="3"/>
@@ -63334,7 +63334,7 @@
         <v>25.65</v>
       </c>
       <c r="C99" s="4">
-        <v>25650</v>
+        <v>81</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" si="3"/>
@@ -63367,7 +63367,7 @@
         <v>21.45</v>
       </c>
       <c r="C100" s="4">
-        <v>21450</v>
+        <v>226</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" si="3"/>
@@ -63400,7 +63400,7 @@
         <v>23.8</v>
       </c>
       <c r="C101" s="4">
-        <v>23800</v>
+        <v>189</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" si="3"/>
@@ -63433,7 +63433,7 @@
         <v>20.45</v>
       </c>
       <c r="C102" s="4">
-        <v>20450</v>
+        <v>107</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" si="3"/>
@@ -63466,7 +63466,7 @@
         <v>20.6</v>
       </c>
       <c r="C103" s="4">
-        <v>20600</v>
+        <v>53</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" si="3"/>
@@ -63499,7 +63499,7 @@
         <v>18.3</v>
       </c>
       <c r="C104" s="4">
-        <v>18300</v>
+        <v>77</v>
       </c>
       <c r="D104" s="4">
         <f t="shared" si="3"/>
@@ -63532,7 +63532,7 @@
         <v>21</v>
       </c>
       <c r="C105" s="4">
-        <v>21000</v>
+        <v>46</v>
       </c>
       <c r="D105" s="4">
         <f t="shared" si="3"/>
@@ -63565,7 +63565,7 @@
         <v>19.5</v>
       </c>
       <c r="C106" s="4">
-        <v>19500</v>
+        <v>44</v>
       </c>
       <c r="D106" s="4">
         <f t="shared" si="3"/>
@@ -63598,7 +63598,7 @@
         <v>19.8</v>
       </c>
       <c r="C107" s="4">
-        <v>19800</v>
+        <v>23</v>
       </c>
       <c r="D107" s="4">
         <f t="shared" si="3"/>
@@ -63631,7 +63631,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C108" s="4">
-        <v>20100</v>
+        <v>26</v>
       </c>
       <c r="D108" s="4">
         <f t="shared" si="3"/>
@@ -63664,7 +63664,7 @@
         <v>19.2</v>
       </c>
       <c r="C109" s="4">
-        <v>19200</v>
+        <v>53</v>
       </c>
       <c r="D109" s="4">
         <f t="shared" si="3"/>
@@ -63697,7 +63697,7 @@
         <v>22.35</v>
       </c>
       <c r="C110" s="4">
-        <v>22350</v>
+        <v>240</v>
       </c>
       <c r="D110" s="4">
         <f t="shared" si="3"/>
@@ -63730,7 +63730,7 @@
         <v>22</v>
       </c>
       <c r="C111" s="4">
-        <v>22000</v>
+        <v>91</v>
       </c>
       <c r="D111" s="4">
         <f t="shared" si="3"/>
@@ -63763,7 +63763,7 @@
         <v>20.2</v>
       </c>
       <c r="C112" s="4">
-        <v>20200</v>
+        <v>348</v>
       </c>
       <c r="D112" s="4">
         <f t="shared" si="3"/>
@@ -63796,7 +63796,7 @@
         <v>18.5</v>
       </c>
       <c r="C113" s="4">
-        <v>18500</v>
+        <v>95</v>
       </c>
       <c r="D113" s="4">
         <f t="shared" si="3"/>
@@ -63829,7 +63829,7 @@
         <v>18.5</v>
       </c>
       <c r="C114" s="4">
-        <v>18500</v>
+        <v>49</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" si="3"/>
@@ -63862,7 +63862,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C115" s="4">
-        <v>19400</v>
+        <v>196</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" si="3"/>
@@ -63895,7 +63895,7 @@
         <v>19.95</v>
       </c>
       <c r="C116" s="4">
-        <v>19950</v>
+        <v>67</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" si="3"/>
@@ -63928,7 +63928,7 @@
         <v>18.95</v>
       </c>
       <c r="C117" s="4">
-        <v>18950</v>
+        <v>78</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" si="3"/>
@@ -63961,7 +63961,7 @@
         <v>14.8</v>
       </c>
       <c r="C118" s="4">
-        <v>14800</v>
+        <v>100</v>
       </c>
       <c r="D118" s="4">
         <f t="shared" si="3"/>
@@ -63994,7 +63994,7 @@
         <v>16.8</v>
       </c>
       <c r="C119" s="4">
-        <v>16800</v>
+        <v>97</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="3"/>
@@ -64027,7 +64027,7 @@
         <v>14.8</v>
       </c>
       <c r="C120" s="4">
-        <v>14800</v>
+        <v>58</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" si="3"/>
@@ -64060,7 +64060,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="4">
-        <v>14000</v>
+        <v>160</v>
       </c>
       <c r="D121" s="4">
         <f t="shared" si="3"/>
@@ -64093,7 +64093,7 @@
         <v>13.7</v>
       </c>
       <c r="C122" s="4">
-        <v>13700</v>
+        <v>73</v>
       </c>
       <c r="D122" s="4">
         <f t="shared" si="3"/>
@@ -64126,7 +64126,7 @@
         <v>14.5</v>
       </c>
       <c r="C123" s="4">
-        <v>14500</v>
+        <v>72</v>
       </c>
       <c r="D123" s="4">
         <f t="shared" si="3"/>
@@ -64159,7 +64159,7 @@
         <v>14.2</v>
       </c>
       <c r="C124" s="4">
-        <v>14200</v>
+        <v>56</v>
       </c>
       <c r="D124" s="4">
         <f t="shared" si="3"/>
@@ -64192,7 +64192,7 @@
         <v>15.2</v>
       </c>
       <c r="C125" s="4">
-        <v>15200</v>
+        <v>91</v>
       </c>
       <c r="D125" s="4">
         <f t="shared" si="3"/>
@@ -64225,7 +64225,7 @@
         <v>15</v>
       </c>
       <c r="C126" s="4">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" si="3"/>
@@ -64258,7 +64258,7 @@
         <v>14.2</v>
       </c>
       <c r="C127" s="4">
-        <v>14200</v>
+        <v>48</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" ref="D127:D150" si="4">F127/B127</f>
@@ -64291,7 +64291,7 @@
         <v>13.2</v>
       </c>
       <c r="C128" s="4">
-        <v>13200</v>
+        <v>3524</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" si="4"/>
@@ -64324,7 +64324,7 @@
         <v>11.5</v>
       </c>
       <c r="C129" s="4">
-        <v>11500</v>
+        <v>1129</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" si="4"/>
@@ -64357,7 +64357,7 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="C130" s="4">
-        <v>9450</v>
+        <v>48</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" si="4"/>
@@ -64390,7 +64390,7 @@
         <v>19.25</v>
       </c>
       <c r="C131" s="4">
-        <v>19250</v>
+        <v>275</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" si="4"/>
@@ -64423,7 +64423,7 @@
         <v>14.4</v>
       </c>
       <c r="C132" s="4">
-        <v>14400</v>
+        <v>62</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" si="4"/>
@@ -64456,7 +64456,7 @@
         <v>16.5</v>
       </c>
       <c r="C133" s="4">
-        <v>16500</v>
+        <v>1583</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" si="4"/>
@@ -64489,7 +64489,7 @@
         <v>33.85</v>
       </c>
       <c r="C134" s="4">
-        <v>33850</v>
+        <v>4251</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" si="4"/>
@@ -64522,7 +64522,7 @@
         <v>41.9</v>
       </c>
       <c r="C135" s="4">
-        <v>41900</v>
+        <v>1120</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" si="4"/>
@@ -64555,7 +64555,7 @@
         <v>52</v>
       </c>
       <c r="C136" s="4">
-        <v>52000</v>
+        <v>1204</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" si="4"/>
@@ -64588,7 +64588,7 @@
         <v>56</v>
       </c>
       <c r="C137" s="4">
-        <v>56000</v>
+        <v>1110</v>
       </c>
       <c r="D137" s="4">
         <f t="shared" si="4"/>
@@ -64621,7 +64621,7 @@
         <v>80</v>
       </c>
       <c r="C138" s="4">
-        <v>80000</v>
+        <v>887</v>
       </c>
       <c r="D138" s="4">
         <f t="shared" si="4"/>
@@ -64654,7 +64654,7 @@
         <v>76</v>
       </c>
       <c r="C139" s="4">
-        <v>76000</v>
+        <v>361</v>
       </c>
       <c r="D139" s="4">
         <f t="shared" si="4"/>
@@ -64687,7 +64687,7 @@
         <v>73</v>
       </c>
       <c r="C140" s="4">
-        <v>73000</v>
+        <v>558</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" si="4"/>
@@ -64720,7 +64720,7 @@
         <v>65</v>
       </c>
       <c r="C141" s="4">
-        <v>65000</v>
+        <v>345</v>
       </c>
       <c r="D141" s="4">
         <f t="shared" si="4"/>
@@ -64753,7 +64753,7 @@
         <v>85</v>
       </c>
       <c r="C142" s="4">
-        <v>85000</v>
+        <v>1361</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" si="4"/>
@@ -64786,7 +64786,7 @@
         <v>71</v>
       </c>
       <c r="C143" s="4">
-        <v>71000</v>
+        <v>1503</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" si="4"/>
@@ -64819,7 +64819,7 @@
         <v>79.099999999999994</v>
       </c>
       <c r="C144" s="4">
-        <v>79100</v>
+        <v>1083</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" si="4"/>
@@ -64852,7 +64852,7 @@
         <v>81.2</v>
       </c>
       <c r="C145" s="4">
-        <v>81200</v>
+        <v>1523</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" si="4"/>
@@ -64885,7 +64885,7 @@
         <v>81</v>
       </c>
       <c r="C146" s="4">
-        <v>81000</v>
+        <v>507</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" si="4"/>
@@ -64918,7 +64918,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="C147" s="4">
-        <v>78400</v>
+        <v>380</v>
       </c>
       <c r="D147" s="4">
         <f t="shared" si="4"/>
@@ -64951,7 +64951,7 @@
         <v>72.8</v>
       </c>
       <c r="C148" s="4">
-        <v>72800</v>
+        <v>539</v>
       </c>
       <c r="D148" s="4">
         <f t="shared" si="4"/>
@@ -64984,7 +64984,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="C149" s="4">
-        <v>75900</v>
+        <v>344</v>
       </c>
       <c r="D149" s="4">
         <f t="shared" si="4"/>
@@ -65017,7 +65017,7 @@
         <v>74.5</v>
       </c>
       <c r="C150" s="4">
-        <v>74500</v>
+        <v>242</v>
       </c>
       <c r="D150" s="4">
         <f t="shared" si="4"/>
@@ -65050,7 +65050,7 @@
         <v>70</v>
       </c>
       <c r="C151" s="4">
-        <v>70000</v>
+        <v>180</v>
       </c>
       <c r="D151" s="4">
         <v>152.81</v>
@@ -65082,7 +65082,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C152" s="4">
-        <v>65900</v>
+        <v>89</v>
       </c>
       <c r="D152" s="4">
         <v>143.86000000000001</v>
@@ -65114,7 +65114,7 @@
         <v>73.5</v>
       </c>
       <c r="C153" s="4">
-        <v>73500</v>
+        <v>573</v>
       </c>
       <c r="D153" s="4">
         <v>160.44999999999999</v>
@@ -65146,7 +65146,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="C154" s="4">
-        <v>77600</v>
+        <v>256</v>
       </c>
       <c r="D154" s="4">
         <v>171.74</v>
@@ -65178,7 +65178,7 @@
         <v>95</v>
       </c>
       <c r="C155" s="4">
-        <v>95000</v>
+        <v>1359</v>
       </c>
       <c r="D155" s="4">
         <f>AVERAGE(D154,D157)</f>
@@ -65211,7 +65211,7 @@
         <v>89.7</v>
       </c>
       <c r="C156" s="4">
-        <v>89700</v>
+        <v>1447</v>
       </c>
       <c r="D156" s="4">
         <f>AVERAGE(D155,D158)</f>
@@ -65244,7 +65244,7 @@
         <v>112.5</v>
       </c>
       <c r="C157" s="4">
-        <v>112500</v>
+        <v>21425</v>
       </c>
       <c r="D157" s="4">
         <v>54.58</v>
@@ -65276,7 +65276,7 @@
         <v>114</v>
       </c>
       <c r="C158" s="4">
-        <v>114000</v>
+        <v>32499</v>
       </c>
       <c r="D158" s="4">
         <v>55.31</v>
@@ -65308,7 +65308,7 @@
         <v>95.7</v>
       </c>
       <c r="C159" s="4">
-        <v>95700</v>
+        <v>17574</v>
       </c>
       <c r="D159" s="4">
         <v>46.43</v>
@@ -65340,7 +65340,7 @@
         <v>126.5</v>
       </c>
       <c r="C160" s="4">
-        <v>126500</v>
+        <v>30169</v>
       </c>
       <c r="D160" s="4">
         <v>61.38</v>
@@ -65372,7 +65372,7 @@
         <v>102</v>
       </c>
       <c r="C161" s="4">
-        <v>102000</v>
+        <v>26454</v>
       </c>
       <c r="D161" s="4">
         <v>51.63</v>
@@ -65404,7 +65404,7 @@
         <v>88.6</v>
       </c>
       <c r="C162" s="4">
-        <v>88600</v>
+        <v>18049</v>
       </c>
       <c r="D162" s="4">
         <v>44.84</v>
@@ -65436,7 +65436,7 @@
         <v>96</v>
       </c>
       <c r="C163" s="4">
-        <v>96000</v>
+        <v>15877</v>
       </c>
       <c r="D163" s="4">
         <f>AVERAGE(D162,D175)</f>
@@ -65469,7 +65469,7 @@
         <v>91.7</v>
       </c>
       <c r="C164" s="4">
-        <v>91700</v>
+        <v>12326</v>
       </c>
       <c r="D164" s="4">
         <f>AVERAGE(D163,D176)</f>
@@ -65502,7 +65502,7 @@
         <v>99.3</v>
       </c>
       <c r="C165" s="4">
-        <v>99300</v>
+        <v>15890</v>
       </c>
       <c r="D165" s="4">
         <f t="shared" ref="D165:D168" si="5">AVERAGE(D164,D177)</f>
@@ -65535,7 +65535,7 @@
         <v>125</v>
       </c>
       <c r="C166" s="4">
-        <v>125000</v>
+        <v>10585</v>
       </c>
       <c r="D166" s="4">
         <f t="shared" si="5"/>
@@ -65568,7 +65568,7 @@
         <v>123</v>
       </c>
       <c r="C167" s="4">
-        <v>123000</v>
+        <v>9962</v>
       </c>
       <c r="D167" s="4">
         <f t="shared" si="5"/>
@@ -65601,7 +65601,7 @@
         <v>119.5</v>
       </c>
       <c r="C168" s="4">
-        <v>119500</v>
+        <v>4746</v>
       </c>
       <c r="D168" s="4">
         <f t="shared" si="5"/>
@@ -65634,7 +65634,7 @@
         <v>115.5</v>
       </c>
       <c r="C169" s="4">
-        <v>115500</v>
+        <v>2636</v>
       </c>
       <c r="D169" s="4">
         <f>AVERAGE(D163,D176)</f>
@@ -65667,7 +65667,7 @@
         <v>114</v>
       </c>
       <c r="C170" s="4">
-        <v>114000</v>
+        <v>1253</v>
       </c>
       <c r="D170" s="4">
         <f t="shared" ref="D170:D174" si="6">AVERAGE(D164,D177)</f>
@@ -65700,7 +65700,7 @@
         <v>114</v>
       </c>
       <c r="C171" s="4">
-        <v>114000</v>
+        <v>1651</v>
       </c>
       <c r="D171" s="4">
         <f t="shared" si="6"/>
@@ -65733,7 +65733,7 @@
         <v>124.5</v>
       </c>
       <c r="C172" s="4">
-        <v>124500</v>
+        <v>3804</v>
       </c>
       <c r="D172" s="4">
         <f t="shared" si="6"/>
@@ -65766,7 +65766,7 @@
         <v>129</v>
       </c>
       <c r="C173" s="4">
-        <v>129000</v>
+        <v>2229</v>
       </c>
       <c r="D173" s="4">
         <f t="shared" si="6"/>
@@ -65799,7 +65799,7 @@
         <v>235.5</v>
       </c>
       <c r="C174" s="4">
-        <v>235500</v>
+        <v>34612</v>
       </c>
       <c r="D174" s="4">
         <f t="shared" si="6"/>
@@ -65832,7 +65832,7 @@
         <v>119.5</v>
       </c>
       <c r="C175" s="4">
-        <v>119500</v>
+        <v>49288</v>
       </c>
       <c r="D175" s="4">
         <v>244.27</v>
@@ -65864,7 +65864,7 @@
         <v>91.1</v>
       </c>
       <c r="C176" s="4">
-        <v>91100</v>
+        <v>26430</v>
       </c>
       <c r="D176" s="4">
         <v>186.22</v>
@@ -65896,7 +65896,7 @@
         <v>82.5</v>
       </c>
       <c r="C177" s="4">
-        <v>82500</v>
+        <v>28661</v>
       </c>
       <c r="D177" s="4">
         <v>168.64</v>
@@ -65928,7 +65928,7 @@
         <v>82</v>
       </c>
       <c r="C178" s="4">
-        <v>82000</v>
+        <v>15182</v>
       </c>
       <c r="D178" s="4">
         <v>167.61</v>
@@ -65960,7 +65960,7 @@
         <v>86.5</v>
       </c>
       <c r="C179" s="4">
-        <v>86500</v>
+        <v>34643</v>
       </c>
       <c r="D179" s="4">
         <v>165.17</v>
@@ -65992,7 +65992,7 @@
         <v>88.5</v>
       </c>
       <c r="C180" s="4">
-        <v>88500</v>
+        <v>18780</v>
       </c>
       <c r="D180" s="4">
         <v>167.76</v>
@@ -66024,7 +66024,7 @@
         <v>83.4</v>
       </c>
       <c r="C181" s="4">
-        <v>83400</v>
+        <v>5154</v>
       </c>
       <c r="D181" s="4">
         <v>597.26</v>
@@ -66056,7 +66056,7 @@
         <v>87.8</v>
       </c>
       <c r="C182" s="4">
-        <v>87800</v>
+        <v>14585</v>
       </c>
       <c r="D182" s="4">
         <v>628.77</v>
@@ -66088,7 +66088,7 @@
         <v>82.9</v>
       </c>
       <c r="C183" s="4">
-        <v>82900</v>
+        <v>3175</v>
       </c>
       <c r="D183" s="4">
         <v>593.67999999999995</v>
@@ -66120,7 +66120,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="C184" s="4">
-        <v>79600</v>
+        <v>14556</v>
       </c>
       <c r="D184" s="4">
         <v>569.94000000000005</v>
@@ -66152,7 +66152,7 @@
         <v>86.6</v>
       </c>
       <c r="C185" s="4">
-        <v>86600</v>
+        <v>12744</v>
       </c>
       <c r="D185" s="4">
         <v>620.05999999999995</v>
@@ -66184,7 +66184,7 @@
         <v>137.5</v>
       </c>
       <c r="C186" s="4">
-        <v>137500</v>
+        <v>40930</v>
       </c>
       <c r="D186" s="4">
         <v>984.51</v>
@@ -66216,7 +66216,7 @@
         <v>108</v>
       </c>
       <c r="C187" s="4">
-        <v>108000</v>
+        <v>33034</v>
       </c>
       <c r="D187" s="4">
         <v>91.46</v>
@@ -66248,7 +66248,7 @@
         <v>129.5</v>
       </c>
       <c r="C188" s="4">
-        <v>129500</v>
+        <v>20283</v>
       </c>
       <c r="D188" s="4">
         <v>109.67</v>
@@ -66280,7 +66280,7 @@
         <v>120.5</v>
       </c>
       <c r="C189" s="4">
-        <v>120500</v>
+        <v>12624</v>
       </c>
       <c r="D189" s="4">
         <v>101.99</v>
@@ -66312,7 +66312,7 @@
         <v>136.5</v>
       </c>
       <c r="C190" s="4">
-        <v>136500</v>
+        <v>25479</v>
       </c>
       <c r="D190" s="4">
         <v>115.53</v>
@@ -66344,7 +66344,7 @@
         <v>80.900000000000006</v>
       </c>
       <c r="C191" s="4">
-        <v>80900</v>
+        <v>29715</v>
       </c>
       <c r="D191" s="4">
         <v>629.01</v>
@@ -66376,7 +66376,7 @@
         <v>105</v>
       </c>
       <c r="C192" s="4">
-        <v>105000</v>
+        <v>16793</v>
       </c>
       <c r="D192" s="4">
         <v>816.39</v>
@@ -66408,7 +66408,7 @@
         <v>114</v>
       </c>
       <c r="C193" s="4">
-        <v>114000</v>
+        <v>14011</v>
       </c>
       <c r="D193" s="4">
         <v>152.94999999999999</v>
@@ -66440,7 +66440,7 @@
         <v>119</v>
       </c>
       <c r="C194" s="4">
-        <v>119000</v>
+        <v>14165</v>
       </c>
       <c r="D194" s="4">
         <v>164.67</v>
@@ -66472,7 +66472,7 @@
         <v>140</v>
       </c>
       <c r="C195" s="4">
-        <v>140000</v>
+        <v>17131</v>
       </c>
       <c r="D195" s="4">
         <v>193.73</v>
@@ -66504,7 +66504,7 @@
         <v>132</v>
       </c>
       <c r="C196" s="4">
-        <v>132000</v>
+        <v>29514</v>
       </c>
       <c r="D196" s="4">
         <v>182.66</v>
@@ -66536,7 +66536,7 @@
         <v>96.2</v>
       </c>
       <c r="C197" s="4">
-        <v>96200</v>
+        <v>31065</v>
       </c>
       <c r="D197" s="4">
         <v>133.12</v>
@@ -66568,7 +66568,7 @@
         <v>90.8</v>
       </c>
       <c r="C198" s="4">
-        <v>90800</v>
+        <v>22333</v>
       </c>
       <c r="D198" s="4">
         <v>125.65</v>
@@ -66600,7 +66600,7 @@
         <v>93.7</v>
       </c>
       <c r="C199" s="4">
-        <v>93700</v>
+        <v>23519</v>
       </c>
       <c r="D199" s="4">
         <v>186.51</v>
@@ -66632,7 +66632,7 @@
         <v>94</v>
       </c>
       <c r="C200" s="4">
-        <v>94000</v>
+        <v>34536</v>
       </c>
       <c r="D200" s="4">
         <v>187.1</v>
@@ -66664,7 +66664,7 @@
         <v>98.7</v>
       </c>
       <c r="C201" s="4">
-        <v>98700</v>
+        <v>39815</v>
       </c>
       <c r="D201" s="4">
         <v>196.46</v>
@@ -66696,7 +66696,7 @@
         <v>118</v>
       </c>
       <c r="C202" s="4">
-        <v>118000</v>
+        <v>62119</v>
       </c>
       <c r="D202" s="4">
         <v>234.88</v>
@@ -66728,7 +66728,7 @@
         <v>104.5</v>
       </c>
       <c r="C203" s="4">
-        <v>104500</v>
+        <v>57071</v>
       </c>
       <c r="D203" s="4">
         <f>AVERAGE(D202,D229)</f>
@@ -66761,7 +66761,7 @@
         <v>98.2</v>
       </c>
       <c r="C204" s="4">
-        <v>98200</v>
+        <v>17330</v>
       </c>
       <c r="D204" s="4">
         <f t="shared" ref="D204:D228" si="7">AVERAGE(D203,D230)</f>
@@ -66794,7 +66794,7 @@
         <v>96</v>
       </c>
       <c r="C205" s="4">
-        <v>96000</v>
+        <v>12823</v>
       </c>
       <c r="D205" s="4">
         <f t="shared" si="7"/>
@@ -66827,7 +66827,7 @@
         <v>89.5</v>
       </c>
       <c r="C206" s="4">
-        <v>89500</v>
+        <v>7142</v>
       </c>
       <c r="D206" s="4">
         <f t="shared" si="7"/>
@@ -66860,7 +66860,7 @@
         <v>92.4</v>
       </c>
       <c r="C207" s="4">
-        <v>92400</v>
+        <v>16046</v>
       </c>
       <c r="D207" s="4">
         <f t="shared" si="7"/>
@@ -66893,7 +66893,7 @@
         <v>51</v>
       </c>
       <c r="C208" s="4">
-        <v>51000</v>
+        <v>14066</v>
       </c>
       <c r="D208" s="4">
         <f t="shared" si="7"/>
@@ -66926,7 +66926,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="C209" s="4">
-        <v>67900</v>
+        <v>17601</v>
       </c>
       <c r="D209" s="4">
         <f t="shared" si="7"/>
@@ -66959,7 +66959,7 @@
         <v>74.3</v>
       </c>
       <c r="C210" s="4">
-        <v>74300</v>
+        <v>18835</v>
       </c>
       <c r="D210" s="4">
         <f t="shared" si="7"/>
@@ -66992,7 +66992,7 @@
         <v>80.400000000000006</v>
       </c>
       <c r="C211" s="4">
-        <v>80400</v>
+        <v>12952</v>
       </c>
       <c r="D211" s="4">
         <f t="shared" si="7"/>
@@ -67025,7 +67025,7 @@
         <v>79.3</v>
       </c>
       <c r="C212" s="4">
-        <v>79300</v>
+        <v>11695</v>
       </c>
       <c r="D212" s="4">
         <f t="shared" si="7"/>
@@ -67058,7 +67058,7 @@
         <v>74.7</v>
       </c>
       <c r="C213" s="4">
-        <v>74700</v>
+        <v>5243</v>
       </c>
       <c r="D213" s="4">
         <f t="shared" si="7"/>
@@ -67091,7 +67091,7 @@
         <v>79.7</v>
       </c>
       <c r="C214" s="4">
-        <v>79700</v>
+        <v>6315</v>
       </c>
       <c r="D214" s="4">
         <f t="shared" si="7"/>
@@ -67124,7 +67124,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="C215" s="4">
-        <v>75600</v>
+        <v>14618</v>
       </c>
       <c r="D215" s="4">
         <f t="shared" si="7"/>
@@ -67157,7 +67157,7 @@
         <v>73.3</v>
       </c>
       <c r="C216" s="4">
-        <v>73300</v>
+        <v>9553</v>
       </c>
       <c r="D216" s="4">
         <f t="shared" si="7"/>
@@ -67190,7 +67190,7 @@
         <v>74.5</v>
       </c>
       <c r="C217" s="4">
-        <v>74500</v>
+        <v>12612</v>
       </c>
       <c r="D217" s="4">
         <f t="shared" si="7"/>
@@ -67223,7 +67223,7 @@
         <v>66.7</v>
       </c>
       <c r="C218" s="4">
-        <v>66700</v>
+        <v>7740</v>
       </c>
       <c r="D218" s="4">
         <f t="shared" si="7"/>
@@ -67256,7 +67256,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="C219" s="4">
-        <v>66400</v>
+        <v>2809</v>
       </c>
       <c r="D219" s="4">
         <f t="shared" si="7"/>
@@ -67289,7 +67289,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="C220" s="4">
-        <v>65900</v>
+        <v>5240</v>
       </c>
       <c r="D220" s="4">
         <f t="shared" si="7"/>
@@ -67322,7 +67322,7 @@
         <v>68.7</v>
       </c>
       <c r="C221" s="4">
-        <v>68700</v>
+        <v>9938</v>
       </c>
       <c r="D221" s="4">
         <f t="shared" si="7"/>
@@ -67355,7 +67355,7 @@
         <v>59.6</v>
       </c>
       <c r="C222" s="4">
-        <v>59600</v>
+        <v>9523</v>
       </c>
       <c r="D222" s="4">
         <f t="shared" si="7"/>
@@ -67388,7 +67388,7 @@
         <v>75.5</v>
       </c>
       <c r="C223" s="4">
-        <v>75500</v>
+        <v>9373</v>
       </c>
       <c r="D223" s="4">
         <f t="shared" si="7"/>
@@ -67421,7 +67421,7 @@
         <v>73.900000000000006</v>
       </c>
       <c r="C224" s="4">
-        <v>73900</v>
+        <v>27973</v>
       </c>
       <c r="D224" s="4">
         <f t="shared" si="7"/>
@@ -67454,7 +67454,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="C225" s="4">
-        <v>74100</v>
+        <v>14688</v>
       </c>
       <c r="D225" s="4">
         <f t="shared" si="7"/>
@@ -67487,7 +67487,7 @@
         <v>66.8</v>
       </c>
       <c r="C226" s="4">
-        <v>66800</v>
+        <v>4554</v>
       </c>
       <c r="D226" s="4">
         <f t="shared" si="7"/>
@@ -67520,7 +67520,7 @@
         <v>64.900000000000006</v>
       </c>
       <c r="C227" s="4">
-        <v>64900.000000000007</v>
+        <v>4375</v>
       </c>
       <c r="D227" s="4">
         <f t="shared" si="7"/>
@@ -67553,7 +67553,7 @@
         <v>66.3</v>
       </c>
       <c r="C228" s="4">
-        <v>66300</v>
+        <v>3597</v>
       </c>
       <c r="D228" s="4">
         <f t="shared" si="7"/>
@@ -67586,7 +67586,7 @@
         <v>101</v>
       </c>
       <c r="C229" s="4">
-        <v>101000</v>
+        <v>75437</v>
       </c>
       <c r="D229" s="4">
         <v>402.4</v>
@@ -67618,7 +67618,7 @@
         <v>80.5</v>
       </c>
       <c r="C230" s="4">
-        <v>80500</v>
+        <v>55191</v>
       </c>
       <c r="D230" s="4">
         <v>320.72000000000003</v>
@@ -67650,7 +67650,7 @@
         <v>88.6</v>
       </c>
       <c r="C231" s="4">
-        <v>88600</v>
+        <v>24862</v>
       </c>
       <c r="D231" s="4">
         <v>352.99</v>
@@ -67682,7 +67682,7 @@
         <v>95</v>
       </c>
       <c r="C232" s="4">
-        <v>95000</v>
+        <v>54614</v>
       </c>
       <c r="D232" s="4">
         <v>378.49</v>
@@ -67714,7 +67714,7 @@
         <v>81.7</v>
       </c>
       <c r="C233" s="4">
-        <v>81700</v>
+        <v>20062</v>
       </c>
       <c r="D233" s="4">
         <v>325.5</v>
@@ -67746,7 +67746,7 @@
         <v>88.7</v>
       </c>
       <c r="C234" s="4">
-        <v>88700</v>
+        <v>11431</v>
       </c>
       <c r="D234" s="4">
         <v>353.39</v>
@@ -67778,7 +67778,7 @@
         <v>75.5</v>
       </c>
       <c r="C235" s="4">
-        <v>75500</v>
+        <v>19364</v>
       </c>
       <c r="D235" s="4">
         <v>320.72000000000003</v>
@@ -67810,7 +67810,7 @@
         <v>82.4</v>
       </c>
       <c r="C236" s="4">
-        <v>82400</v>
+        <v>19089</v>
       </c>
       <c r="D236" s="4">
         <v>352.99</v>
@@ -67842,7 +67842,7 @@
         <v>82.7</v>
       </c>
       <c r="C237" s="4">
-        <v>82700</v>
+        <v>14470</v>
       </c>
       <c r="D237" s="4">
         <v>378.49</v>
@@ -67874,7 +67874,7 @@
         <v>48.3</v>
       </c>
       <c r="C238" s="4">
-        <v>48300</v>
+        <v>19121</v>
       </c>
       <c r="D238" s="4">
         <v>325.5</v>
@@ -67906,7 +67906,7 @@
         <v>45.4</v>
       </c>
       <c r="C239" s="4">
-        <v>45400</v>
+        <v>11573</v>
       </c>
       <c r="D239" s="4">
         <v>353.39</v>
@@ -67938,7 +67938,7 @@
         <v>50.3</v>
       </c>
       <c r="C240" s="4">
-        <v>50300</v>
+        <v>21571</v>
       </c>
       <c r="D240" s="4">
         <v>320.72000000000003</v>
@@ -67970,7 +67970,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="C241" s="4">
-        <v>65099.999999999993</v>
+        <v>95333</v>
       </c>
       <c r="D241" s="4">
         <v>352.99</v>
@@ -68002,7 +68002,7 @@
         <v>64.8</v>
       </c>
       <c r="C242" s="4">
-        <v>64800</v>
+        <v>44549</v>
       </c>
       <c r="D242" s="4">
         <v>378.49</v>
@@ -68034,7 +68034,7 @@
         <v>57.1</v>
       </c>
       <c r="C243" s="4">
-        <v>57100</v>
+        <v>22328</v>
       </c>
       <c r="D243" s="4">
         <v>325.5</v>
@@ -68066,7 +68066,7 @@
         <v>62.4</v>
       </c>
       <c r="C244" s="4">
-        <v>62400</v>
+        <v>16737</v>
       </c>
       <c r="D244" s="4">
         <v>353.39</v>
@@ -68098,7 +68098,7 @@
         <v>73</v>
       </c>
       <c r="C245" s="4">
-        <v>73000</v>
+        <v>35099</v>
       </c>
       <c r="D245" s="4">
         <v>320.72000000000003</v>
@@ -68130,7 +68130,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="C246" s="4">
-        <v>81600</v>
+        <v>133685</v>
       </c>
       <c r="D246" s="4">
         <v>352.99</v>
@@ -68162,7 +68162,7 @@
         <v>100.5</v>
       </c>
       <c r="C247" s="4">
-        <v>100500</v>
+        <v>167624</v>
       </c>
       <c r="D247" s="4">
         <v>378.49</v>
@@ -68194,7 +68194,7 @@
         <v>85.7</v>
       </c>
       <c r="C248" s="4">
-        <v>85700</v>
+        <v>163168</v>
       </c>
       <c r="D248" s="4">
         <v>325.5</v>
@@ -68226,7 +68226,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="C249" s="4">
-        <v>68100</v>
+        <v>43160</v>
       </c>
       <c r="D249" s="4">
         <v>353.39</v>
@@ -68258,7 +68258,7 @@
         <v>65.7</v>
       </c>
       <c r="C250" s="4">
-        <v>65700</v>
+        <v>23609</v>
       </c>
       <c r="D250" s="4">
         <v>320.72000000000003</v>
@@ -68290,7 +68290,7 @@
         <v>68.400000000000006</v>
       </c>
       <c r="C251" s="4">
-        <v>68400</v>
+        <v>22456</v>
       </c>
       <c r="D251" s="4">
         <v>352.99</v>
@@ -68322,7 +68322,7 @@
         <v>78.5</v>
       </c>
       <c r="C252" s="4">
-        <v>78500</v>
+        <v>51560</v>
       </c>
       <c r="D252" s="4">
         <v>378.49</v>
@@ -68354,7 +68354,7 @@
         <v>77</v>
       </c>
       <c r="C253" s="4">
-        <v>77000</v>
+        <v>62475</v>
       </c>
       <c r="D253" s="4">
         <v>325.5</v>
@@ -68386,7 +68386,7 @@
         <v>77.3</v>
       </c>
       <c r="C254" s="4">
-        <v>77300</v>
+        <v>71017</v>
       </c>
       <c r="D254" s="4">
         <v>353.39</v>
@@ -68418,7 +68418,7 @@
         <v>74.8</v>
       </c>
       <c r="C255" s="4">
-        <v>74800</v>
+        <v>11935</v>
       </c>
       <c r="D255" s="4">
         <v>320.72000000000003</v>
@@ -68450,7 +68450,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="C256" s="4">
-        <v>69900</v>
+        <v>22411</v>
       </c>
       <c r="D256" s="4">
         <v>352.99</v>
@@ -68482,7 +68482,7 @@
         <v>70.8</v>
       </c>
       <c r="C257" s="4">
-        <v>70800</v>
+        <v>10736</v>
       </c>
       <c r="D257" s="4">
         <v>378.49</v>
@@ -68514,7 +68514,7 @@
         <v>71.5</v>
       </c>
       <c r="C258" s="4">
-        <v>71500</v>
+        <v>13850</v>
       </c>
       <c r="D258" s="4">
         <v>325.5</v>
@@ -68546,7 +68546,7 @@
         <v>74.8</v>
       </c>
       <c r="C259" s="4">
-        <v>74800</v>
+        <v>26401</v>
       </c>
       <c r="D259" s="4">
         <v>353.39</v>
@@ -68578,7 +68578,7 @@
         <v>64.8</v>
       </c>
       <c r="C260" s="4">
-        <v>64800</v>
+        <v>21636</v>
       </c>
       <c r="D260" s="4">
         <v>320.72000000000003</v>
@@ -68610,7 +68610,7 @@
         <v>63.3</v>
       </c>
       <c r="C261" s="4">
-        <v>63300</v>
+        <v>10361</v>
       </c>
       <c r="D261" s="4">
         <v>352.99</v>
@@ -68642,7 +68642,7 @@
         <v>63.3</v>
       </c>
       <c r="C262" s="4">
-        <v>63300</v>
+        <v>13713</v>
       </c>
       <c r="D262" s="4">
         <v>378.49</v>
